--- a/data/ons_weekly_deaths_2020.xlsx
+++ b/data/ons_weekly_deaths_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE447922-6B3E-4208-B28D-BFF0D7D007FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB7A10-D4E8-4638-8E1D-0C8F8CFCDAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" activeTab="9" xr2:uid="{2E10C76F-872B-452C-8A27-924470753E43}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Week number</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>EXCESS DEATHS - 20 Mar to 12 Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Only used for demo purposes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derived by Python notebook called "determine_shift_params" </t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1125,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="23" fillId="5" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1132,6 +1137,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="502">
     <cellStyle name="Comma 10" xfId="2" xr:uid="{2FBB2085-3E13-40B4-82E9-34FA0C408571}"/>
@@ -1685,7 +1691,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Daily death occurences where COVID-19 was mentioned on the death certificate</a:t>
+              <a:t>Daily death occurrences where COVID-19 was mentioned on the death certificate</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3725,61 +3731,61 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10946</c:v>
+                  <c:v>10958.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10811.714285714286</c:v>
+                  <c:v>10763.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10567.714285714286</c:v>
+                  <c:v>10573.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11592</c:v>
+                  <c:v>11826.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13239.642857142857</c:v>
+                  <c:v>13317.184999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13712.285714285714</c:v>
+                  <c:v>13720.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13319.857142857141</c:v>
+                  <c:v>13215.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12163.642857142859</c:v>
+                  <c:v>12028.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11003.714285714286</c:v>
+                  <c:v>10908.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10097.380952380952</c:v>
+                  <c:v>10009.352222222224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9394.3492063492067</c:v>
+                  <c:v>9345.3366666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8941.5555555555566</c:v>
+                  <c:v>8899.7444444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8682.7142857142844</c:v>
+                  <c:v>8677.2033333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8641.2380952380954</c:v>
+                  <c:v>8638.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8596.7619047619046</c:v>
+                  <c:v>8589.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8477.5714285714275</c:v>
+                  <c:v>8459.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8473.7142857142862</c:v>
+                  <c:v>8497.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8486.2857142857138</c:v>
+                  <c:v>8457.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8411.4285714285725</c:v>
+                  <c:v>8432.119999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,61 +4342,61 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10952</c:v>
+                  <c:v>10964.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10855.714285714286</c:v>
+                  <c:v>10807.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10968.714285714286</c:v>
+                  <c:v>10974.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13463</c:v>
+                  <c:v>13697.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18411.642857142855</c:v>
+                  <c:v>18489.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21926.285714285714</c:v>
+                  <c:v>21934.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21609.857142857141</c:v>
+                  <c:v>21505.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19078.642857142859</c:v>
+                  <c:v>18943.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16187.714285714286</c:v>
+                  <c:v>16092.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14064.380952380952</c:v>
+                  <c:v>13976.352222222224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12245.349206349207</c:v>
+                  <c:v>12196.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11208.555555555557</c:v>
+                  <c:v>11166.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10452.714285714284</c:v>
+                  <c:v>10447.203333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9940.2380952380954</c:v>
+                  <c:v>9937.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9531.7619047619046</c:v>
+                  <c:v>9524.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9148.5714285714275</c:v>
+                  <c:v>9130.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9045.7142857142862</c:v>
+                  <c:v>9069.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8908.2857142857138</c:v>
+                  <c:v>8879.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8734.4285714285725</c:v>
+                  <c:v>8755.119999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5263,61 +5269,61 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10952</c:v>
+                  <c:v>10964.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10855.714285714286</c:v>
+                  <c:v>10807.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10968.714285714286</c:v>
+                  <c:v>10974.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13463</c:v>
+                  <c:v>13697.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18411.642857142855</c:v>
+                  <c:v>18489.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21926.285714285714</c:v>
+                  <c:v>21934.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21609.857142857141</c:v>
+                  <c:v>21505.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19078.642857142859</c:v>
+                  <c:v>18943.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16187.714285714286</c:v>
+                  <c:v>16092.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14064.380952380952</c:v>
+                  <c:v>13976.352222222224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12245.349206349207</c:v>
+                  <c:v>12196.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11208.555555555557</c:v>
+                  <c:v>11166.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10452.714285714284</c:v>
+                  <c:v>10447.203333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9940.2380952380954</c:v>
+                  <c:v>9937.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9531.7619047619046</c:v>
+                  <c:v>9524.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9148.5714285714275</c:v>
+                  <c:v>9130.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9045.7142857142862</c:v>
+                  <c:v>9069.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8908.2857142857138</c:v>
+                  <c:v>8879.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8734.4285714285725</c:v>
+                  <c:v>8755.119999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,88 +6064,88 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13027.142857142857</c:v>
+                  <c:v>13210.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13600.285714285714</c:v>
+                  <c:v>13491.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12504</c:v>
+                  <c:v>12388.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11751.428571428572</c:v>
+                  <c:v>11726.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11343.714285714286</c:v>
+                  <c:v>11280.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10968</c:v>
+                  <c:v>10963.740000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10899.857142857143</c:v>
+                  <c:v>10889.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10830.285714285714</c:v>
+                  <c:v>10827.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10849.857142857143</c:v>
+                  <c:v>10857.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10952</c:v>
+                  <c:v>10964.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10855.714285714286</c:v>
+                  <c:v>10807.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10968.714285714286</c:v>
+                  <c:v>10974.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13463</c:v>
+                  <c:v>13697.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18411.642857142855</c:v>
+                  <c:v>18489.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21926.285714285714</c:v>
+                  <c:v>21934.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21609.857142857141</c:v>
+                  <c:v>21505.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19078.642857142859</c:v>
+                  <c:v>18943.895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16187.714285714286</c:v>
+                  <c:v>16092.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14064.380952380952</c:v>
+                  <c:v>13976.352222222224</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12245.349206349207</c:v>
+                  <c:v>12196.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11208.555555555557</c:v>
+                  <c:v>11166.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10452.714285714284</c:v>
+                  <c:v>10447.203333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9940.2380952380954</c:v>
+                  <c:v>9937.77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9531.7619047619046</c:v>
+                  <c:v>9524.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9148.5714285714275</c:v>
+                  <c:v>9130.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9045.7142857142862</c:v>
+                  <c:v>9069.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8908.2857142857138</c:v>
+                  <c:v>8879.48</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8734.4285714285725</c:v>
+                  <c:v>8755.119999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11238,6 +11244,7 @@
         <c:axId val="693275184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12348,61 +12355,61 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.1428571428571432</c:v>
+                  <c:v>2.6500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>56.940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289.85714285714289</c:v>
+                  <c:v>334.08000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1797.2857142857144</c:v>
+                  <c:v>2095.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4648.4285714285716</c:v>
+                  <c:v>4926.1400000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7303.7142857142862</c:v>
+                  <c:v>7561.8499999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8534.7142857142862</c:v>
+                  <c:v>8481.8700000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7293.2857142857138</c:v>
+                  <c:v>7069.9400000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5132.8571428571431</c:v>
+                  <c:v>4919.3500000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3878.5714285714284</c:v>
+                  <c:v>3866.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3286.7142857142853</c:v>
+                  <c:v>3162.87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2260.2857142857142</c:v>
+                  <c:v>2182.4899999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1721.7142857142858</c:v>
+                  <c:v>1697.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1384.8571428571427</c:v>
+                  <c:v>1336.7800000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>972.14285714285711</c:v>
+                  <c:v>938.56999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>707.14285714285711</c:v>
+                  <c:v>689.19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>574.28571428571433</c:v>
+                  <c:v>566.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>460.85714285714289</c:v>
+                  <c:v>444.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>335.57142857142856</c:v>
+                  <c:v>328.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14072,61 +14079,61 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10946</c:v>
+                  <c:v>10958.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10811.714285714286</c:v>
+                  <c:v>10763.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10567.714285714286</c:v>
+                  <c:v>10573.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11592</c:v>
+                  <c:v>11826.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13239.642857142857</c:v>
+                  <c:v>13317.184999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13712.285714285714</c:v>
+                  <c:v>13720.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13319.857142857141</c:v>
+                  <c:v>13215.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12163.642857142859</c:v>
+                  <c:v>12028.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11003.714285714286</c:v>
+                  <c:v>10908.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10097.380952380952</c:v>
+                  <c:v>10009.352222222224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9394.3492063492067</c:v>
+                  <c:v>9345.3366666666661</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8941.5555555555566</c:v>
+                  <c:v>8899.7444444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8682.7142857142844</c:v>
+                  <c:v>8677.2033333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8641.2380952380954</c:v>
+                  <c:v>8638.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8596.7619047619046</c:v>
+                  <c:v>8589.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8477.5714285714275</c:v>
+                  <c:v>8459.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8473.7142857142862</c:v>
+                  <c:v>8497.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8486.2857142857138</c:v>
+                  <c:v>8457.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8411.4285714285725</c:v>
+                  <c:v>8432.119999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22568,13 +22575,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23189,10 +23196,10 @@
   <dimension ref="A1:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23660,8 +23667,8 @@
         <f>'weekly deaths'!AE15</f>
         <v>192</v>
       </c>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -23669,123 +23676,123 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C4:BB4)</f>
-        <v>301334.1428571429</v>
+        <v>300956.21999999991</v>
       </c>
       <c r="C4" s="13">
         <f>'step 3 - shift'!C4</f>
-        <v>13027.142857142857</v>
+        <v>13210.12</v>
       </c>
       <c r="D4" s="13">
         <f>'step 3 - shift'!D4</f>
-        <v>13600.285714285714</v>
+        <v>13491.96</v>
       </c>
       <c r="E4" s="13">
         <f>'step 3 - shift'!E4</f>
-        <v>12504</v>
+        <v>12388.98</v>
       </c>
       <c r="F4" s="13">
         <f>'step 3 - shift'!F4</f>
-        <v>11751.428571428572</v>
+        <v>11726.68</v>
       </c>
       <c r="G4" s="13">
         <f>'step 3 - shift'!G4</f>
-        <v>11343.714285714286</v>
+        <v>11280.22</v>
       </c>
       <c r="H4" s="13">
         <f>'step 3 - shift'!H4</f>
-        <v>10968</v>
+        <v>10963.740000000002</v>
       </c>
       <c r="I4" s="13">
         <f>'step 3 - shift'!I4</f>
-        <v>10899.857142857143</v>
+        <v>10889.41</v>
       </c>
       <c r="J4" s="13">
         <f>'step 3 - shift'!J4</f>
-        <v>10830.285714285714</v>
+        <v>10827.75</v>
       </c>
       <c r="K4" s="13">
         <f>'step 3 - shift'!K4</f>
-        <v>10849.857142857143</v>
+        <v>10857.869999999999</v>
       </c>
       <c r="L4" s="13">
         <f>'step 3 - shift'!L4</f>
-        <v>10946</v>
+        <v>10958.07</v>
       </c>
       <c r="M4" s="13">
         <f>'step 3 - shift'!M4</f>
-        <v>10811.714285714286</v>
+        <v>10763.84</v>
       </c>
       <c r="N4" s="13">
         <f>'step 3 - shift'!N4</f>
-        <v>10567.714285714286</v>
+        <v>10573.8</v>
       </c>
       <c r="O4" s="13">
         <f>'step 3 - shift'!O4</f>
-        <v>11592</v>
+        <v>11826.3</v>
       </c>
       <c r="P4" s="13">
         <f>'step 3 - shift'!P4</f>
-        <v>13239.642857142857</v>
+        <v>13317.184999999999</v>
       </c>
       <c r="Q4" s="13">
         <f>'step 3 - shift'!Q4</f>
-        <v>13712.285714285714</v>
+        <v>13720.755000000001</v>
       </c>
       <c r="R4" s="13">
         <f>'step 3 - shift'!R4</f>
-        <v>13319.857142857141</v>
+        <v>13215.69</v>
       </c>
       <c r="S4" s="13">
         <f>'step 3 - shift'!S4</f>
-        <v>12163.642857142859</v>
+        <v>12028.895</v>
       </c>
       <c r="T4" s="13">
         <f>'step 3 - shift'!T4</f>
-        <v>11003.714285714286</v>
+        <v>10908.861666666668</v>
       </c>
       <c r="U4" s="13">
         <f>'step 3 - shift'!U4</f>
-        <v>10097.380952380952</v>
+        <v>10009.352222222224</v>
       </c>
       <c r="V4" s="13">
         <f>'step 3 - shift'!V4</f>
-        <v>9394.3492063492067</v>
+        <v>9345.3366666666661</v>
       </c>
       <c r="W4" s="13">
         <f>'step 3 - shift'!W4</f>
-        <v>8941.5555555555566</v>
+        <v>8899.7444444444445</v>
       </c>
       <c r="X4" s="13">
         <f>'step 3 - shift'!X4</f>
-        <v>8682.7142857142844</v>
+        <v>8677.2033333333329</v>
       </c>
       <c r="Y4" s="13">
         <f>'step 3 - shift'!Y4</f>
-        <v>8641.2380952380954</v>
+        <v>8638.77</v>
       </c>
       <c r="Z4" s="13">
         <f>'step 3 - shift'!Z4</f>
-        <v>8596.7619047619046</v>
+        <v>8589.5266666666666</v>
       </c>
       <c r="AA4" s="13">
         <f>'step 3 - shift'!AA4</f>
-        <v>8477.5714285714275</v>
+        <v>8459.01</v>
       </c>
       <c r="AB4" s="13">
         <f>'step 3 - shift'!AB4</f>
-        <v>8473.7142857142862</v>
+        <v>8497.5499999999993</v>
       </c>
       <c r="AC4" s="13">
         <f>'step 3 - shift'!AC4</f>
-        <v>8486.2857142857138</v>
+        <v>8457.48</v>
       </c>
       <c r="AD4" s="13">
         <f>'step 3 - shift'!AD4</f>
-        <v>8411.4285714285725</v>
-      </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
+        <v>8432.119999999999</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
@@ -23793,123 +23800,123 @@
       </c>
       <c r="B5" s="13">
         <f>SUM(C5:BB5)</f>
-        <v>352508.14285714284</v>
+        <v>352130.21999999991</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:I5" si="0">C3+C4</f>
-        <v>13027.142857142857</v>
+        <v>13210.12</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="0"/>
-        <v>13600.285714285714</v>
+        <v>13491.96</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>12504</v>
+        <v>12388.98</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>11751.428571428572</v>
+        <v>11726.68</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
-        <v>11343.714285714286</v>
+        <v>11280.22</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>10968</v>
+        <v>10963.740000000002</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="0"/>
-        <v>10899.857142857143</v>
+        <v>10889.41</v>
       </c>
       <c r="J5" s="13">
         <f>J3+J4</f>
-        <v>10830.285714285714</v>
+        <v>10827.75</v>
       </c>
       <c r="K5" s="13">
         <f t="shared" ref="K5:AD5" si="1">K3+K4</f>
-        <v>10849.857142857143</v>
-      </c>
-      <c r="L5" s="13">
+        <v>10857.869999999999</v>
+      </c>
+      <c r="L5" s="74">
         <f t="shared" si="1"/>
-        <v>10952</v>
-      </c>
-      <c r="M5" s="13">
+        <v>10964.07</v>
+      </c>
+      <c r="M5" s="74">
         <f t="shared" si="1"/>
-        <v>10855.714285714286</v>
-      </c>
-      <c r="N5" s="13">
+        <v>10807.84</v>
+      </c>
+      <c r="N5" s="74">
         <f t="shared" si="1"/>
-        <v>10968.714285714286</v>
-      </c>
-      <c r="O5" s="13">
+        <v>10974.8</v>
+      </c>
+      <c r="O5" s="74">
         <f t="shared" si="1"/>
-        <v>13463</v>
-      </c>
-      <c r="P5" s="13">
+        <v>13697.3</v>
+      </c>
+      <c r="P5" s="74">
         <f t="shared" si="1"/>
-        <v>18411.642857142855</v>
-      </c>
-      <c r="Q5" s="13">
+        <v>18489.184999999998</v>
+      </c>
+      <c r="Q5" s="74">
         <f t="shared" si="1"/>
-        <v>21926.285714285714</v>
-      </c>
-      <c r="R5" s="13">
+        <v>21934.755000000001</v>
+      </c>
+      <c r="R5" s="74">
         <f t="shared" si="1"/>
-        <v>21609.857142857141</v>
-      </c>
-      <c r="S5" s="13">
+        <v>21505.690000000002</v>
+      </c>
+      <c r="S5" s="74">
         <f t="shared" si="1"/>
-        <v>19078.642857142859</v>
-      </c>
-      <c r="T5" s="13">
+        <v>18943.895</v>
+      </c>
+      <c r="T5" s="74">
         <f t="shared" si="1"/>
-        <v>16187.714285714286</v>
-      </c>
-      <c r="U5" s="13">
+        <v>16092.861666666668</v>
+      </c>
+      <c r="U5" s="74">
         <f t="shared" si="1"/>
-        <v>14064.380952380952</v>
-      </c>
-      <c r="V5" s="13">
+        <v>13976.352222222224</v>
+      </c>
+      <c r="V5" s="74">
         <f t="shared" si="1"/>
-        <v>12245.349206349207</v>
-      </c>
-      <c r="W5" s="13">
+        <v>12196.336666666666</v>
+      </c>
+      <c r="W5" s="74">
         <f t="shared" si="1"/>
-        <v>11208.555555555557</v>
-      </c>
-      <c r="X5" s="13">
+        <v>11166.744444444445</v>
+      </c>
+      <c r="X5" s="74">
         <f t="shared" si="1"/>
-        <v>10452.714285714284</v>
-      </c>
-      <c r="Y5" s="13">
+        <v>10447.203333333333</v>
+      </c>
+      <c r="Y5" s="74">
         <f t="shared" si="1"/>
-        <v>9940.2380952380954</v>
-      </c>
-      <c r="Z5" s="13">
+        <v>9937.77</v>
+      </c>
+      <c r="Z5" s="74">
         <f t="shared" si="1"/>
-        <v>9531.7619047619046</v>
-      </c>
-      <c r="AA5" s="13">
+        <v>9524.5266666666666</v>
+      </c>
+      <c r="AA5" s="74">
         <f t="shared" si="1"/>
-        <v>9148.5714285714275</v>
-      </c>
-      <c r="AB5" s="13">
+        <v>9130.01</v>
+      </c>
+      <c r="AB5" s="74">
         <f t="shared" si="1"/>
-        <v>9045.7142857142862</v>
-      </c>
-      <c r="AC5" s="13">
+        <v>9069.5499999999993</v>
+      </c>
+      <c r="AC5" s="74">
         <f t="shared" si="1"/>
-        <v>8908.2857142857138</v>
-      </c>
-      <c r="AD5" s="13">
+        <v>8879.48</v>
+      </c>
+      <c r="AD5" s="74">
         <f t="shared" si="1"/>
-        <v>8734.4285714285725</v>
-      </c>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
+        <v>8755.119999999999</v>
+      </c>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
@@ -23917,123 +23924,123 @@
       </c>
       <c r="B6" s="13">
         <f>SUM(C6:BB6)</f>
-        <v>57590.342857142859</v>
+        <v>57212.42</v>
       </c>
       <c r="C6" s="13">
         <f>C5-'weekly deaths'!C25</f>
-        <v>326.74285714285725</v>
+        <v>509.72000000000116</v>
       </c>
       <c r="D6" s="13">
         <f>D5-'weekly deaths'!D25</f>
-        <v>705.28571428571377</v>
+        <v>596.95999999999913</v>
       </c>
       <c r="E6" s="13">
         <f>E5-'weekly deaths'!E25</f>
-        <v>-114.60000000000036</v>
+        <v>-229.6200000000008</v>
       </c>
       <c r="F6" s="13">
         <f>F5-'weekly deaths'!F25</f>
-        <v>-421.97142857142717</v>
+        <v>-446.71999999999935</v>
       </c>
       <c r="G6" s="13">
         <f>G5-'weekly deaths'!G25</f>
-        <v>-735.88571428571413</v>
+        <v>-799.38000000000102</v>
       </c>
       <c r="H6" s="13">
         <f>H5-'weekly deaths'!H25</f>
-        <v>-702.79999999999927</v>
+        <v>-707.05999999999767</v>
       </c>
       <c r="I6" s="13">
         <f>I5-'weekly deaths'!I25</f>
-        <v>-760.74285714285725</v>
+        <v>-771.19000000000051</v>
       </c>
       <c r="J6" s="13">
         <f>J5-'weekly deaths'!J25</f>
-        <v>-572.11428571428587</v>
+        <v>-574.64999999999964</v>
       </c>
       <c r="K6" s="13">
         <f>K5-'weekly deaths'!K25</f>
-        <v>-473.34285714285761</v>
+        <v>-465.33000000000175</v>
       </c>
       <c r="L6" s="13">
         <f>L5-'weekly deaths'!L25</f>
-        <v>-300.79999999999927</v>
+        <v>-288.72999999999956</v>
       </c>
       <c r="M6" s="13">
         <f>M5-'weekly deaths'!M25</f>
-        <v>-54.285714285713766</v>
+        <v>-102.15999999999985</v>
       </c>
       <c r="N6" s="13">
         <f>N5-'weekly deaths'!N25</f>
-        <v>361.51428571428551</v>
+        <v>367.59999999999854</v>
       </c>
       <c r="O6" s="13">
         <f>O5-'weekly deaths'!O25</f>
-        <v>3014.2000000000007</v>
+        <v>3248.5</v>
       </c>
       <c r="P6" s="13">
         <f>P5-'weekly deaths'!P25</f>
-        <v>8051.2428571428554</v>
+        <v>8128.784999999998</v>
       </c>
       <c r="Q6" s="13">
         <f>Q5-'weekly deaths'!Q25</f>
-        <v>11662.885714285714</v>
+        <v>11671.355000000001</v>
       </c>
       <c r="R6" s="13">
         <f>R5-'weekly deaths'!R25</f>
-        <v>11525.057142857142</v>
+        <v>11420.890000000003</v>
       </c>
       <c r="S6" s="13">
         <f>S5-'weekly deaths'!S25</f>
-        <v>9266.442857142858</v>
+        <v>9131.6949999999997</v>
       </c>
       <c r="T6" s="13">
         <f>T5-'weekly deaths'!T25</f>
-        <v>6443.914285714287</v>
+        <v>6349.0616666666683</v>
       </c>
       <c r="U6" s="13">
         <f>U5-'weekly deaths'!U25</f>
-        <v>4318.3809523809523</v>
+        <v>4230.3522222222236</v>
       </c>
       <c r="V6" s="13">
         <f>V5-'weekly deaths'!V25</f>
-        <v>2708.3492063492067</v>
+        <v>2659.3366666666661</v>
       </c>
       <c r="W6" s="13">
         <f>W5-'weekly deaths'!W25</f>
-        <v>1708.3555555555558</v>
+        <v>1666.5444444444438</v>
       </c>
       <c r="X6" s="13">
         <f>X5-'weekly deaths'!X25</f>
-        <v>1255.7142857142844</v>
+        <v>1250.2033333333329</v>
       </c>
       <c r="Y6" s="13">
         <f>Y5-'weekly deaths'!Y25</f>
-        <v>716.83809523809578</v>
+        <v>714.3700000000008</v>
       </c>
       <c r="Z6" s="13">
         <f>Z5-'weekly deaths'!Z25</f>
-        <v>326.16190476190422</v>
+        <v>318.92666666666628</v>
       </c>
       <c r="AA6" s="13">
         <f>AA5-'weekly deaths'!AA25</f>
-        <v>-126.42857142857247</v>
+        <v>-144.98999999999978</v>
       </c>
       <c r="AB6" s="13">
         <f>AB5-'weekly deaths'!AB25</f>
-        <v>-5.8857142857141298</v>
+        <v>17.949999999998909</v>
       </c>
       <c r="AC6" s="13">
         <f>AC5-'weekly deaths'!AC25</f>
-        <v>-363.3142857142866</v>
+        <v>-392.1200000000008</v>
       </c>
       <c r="AD6" s="13">
         <f>AD5-'weekly deaths'!AD25</f>
-        <v>-168.57142857142753</v>
-      </c>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
+        <v>-147.88000000000102</v>
+      </c>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -24041,78 +24048,78 @@
       </c>
       <c r="B7" s="13">
         <f>SUM(C7:BB7)</f>
-        <v>61359.057142857142</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+        <v>61157.62000000001</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="13">
         <f>N6</f>
-        <v>361.51428571428551</v>
+        <v>367.59999999999854</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ref="O7:Z7" si="2">O6</f>
-        <v>3014.2000000000007</v>
+        <v>3248.5</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="2"/>
-        <v>8051.2428571428554</v>
+        <v>8128.784999999998</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="2"/>
-        <v>11662.885714285714</v>
+        <v>11671.355000000001</v>
       </c>
       <c r="R7" s="13">
         <f t="shared" si="2"/>
-        <v>11525.057142857142</v>
+        <v>11420.890000000003</v>
       </c>
       <c r="S7" s="13">
         <f t="shared" si="2"/>
-        <v>9266.442857142858</v>
+        <v>9131.6949999999997</v>
       </c>
       <c r="T7" s="13">
         <f t="shared" si="2"/>
-        <v>6443.914285714287</v>
+        <v>6349.0616666666683</v>
       </c>
       <c r="U7" s="13">
         <f t="shared" si="2"/>
-        <v>4318.3809523809523</v>
+        <v>4230.3522222222236</v>
       </c>
       <c r="V7" s="13">
         <f t="shared" si="2"/>
-        <v>2708.3492063492067</v>
+        <v>2659.3366666666661</v>
       </c>
       <c r="W7" s="13">
         <f t="shared" si="2"/>
-        <v>1708.3555555555558</v>
+        <v>1666.5444444444438</v>
       </c>
       <c r="X7" s="13">
         <f t="shared" si="2"/>
-        <v>1255.7142857142844</v>
+        <v>1250.2033333333329</v>
       </c>
       <c r="Y7" s="13">
         <f t="shared" si="2"/>
-        <v>716.83809523809578</v>
+        <v>714.3700000000008</v>
       </c>
       <c r="Z7" s="13">
         <f t="shared" si="2"/>
-        <v>326.16190476190422</v>
-      </c>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
+        <v>318.92666666666628</v>
+      </c>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
@@ -24127,10 +24134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B149E2-77DB-41A2-80F6-2DEE02D8A44F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24148,18 +24155,21 @@
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
+      <c r="B2" s="94">
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10">
-        <f>1-B2</f>
-        <v>0.4285714285714286</v>
+      <c r="B3" s="94">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -28609,7 +28619,7 @@
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
-      <c r="J127" s="87">
+      <c r="J127" s="86">
         <f t="shared" si="11"/>
         <v>43.571428571428569</v>
       </c>
@@ -28643,7 +28653,7 @@
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="J128" s="87">
+      <c r="J128" s="86">
         <f t="shared" si="11"/>
         <v>40.571428571428569</v>
       </c>
@@ -28677,28 +28687,28 @@
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="J129" s="87">
+      <c r="J129" s="86">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="85">
+      <c r="A130" s="84">
         <v>44023</v>
       </c>
       <c r="B130" s="27">
         <v>41754</v>
       </c>
-      <c r="C130" s="91">
+      <c r="C130" s="90">
         <v>50971</v>
       </c>
       <c r="D130" s="27">
         <v>51177</v>
       </c>
-      <c r="E130" s="86">
+      <c r="E130" s="85">
         <v>51204</v>
       </c>
-      <c r="F130" s="92">
+      <c r="F130" s="91">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
@@ -28706,33 +28716,33 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="H130" s="88"/>
-      <c r="I130" s="87">
+      <c r="H130" s="87"/>
+      <c r="I130" s="86">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="J130" s="87">
+      <c r="J130" s="86">
         <f t="shared" si="11"/>
         <v>37.428571428571431</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="85">
+      <c r="A131" s="84">
         <v>44024</v>
       </c>
       <c r="B131" s="27">
         <v>41754</v>
       </c>
-      <c r="C131" s="91">
+      <c r="C131" s="90">
         <v>50971</v>
       </c>
       <c r="D131" s="27">
         <v>51200</v>
       </c>
-      <c r="E131" s="86">
+      <c r="E131" s="85">
         <v>51231</v>
       </c>
-      <c r="F131" s="92">
+      <c r="F131" s="91">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -28740,33 +28750,33 @@
         <f t="shared" si="10"/>
         <v>46.428571428571431</v>
       </c>
-      <c r="H131" s="88"/>
-      <c r="I131" s="87">
+      <c r="H131" s="87"/>
+      <c r="I131" s="86">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="J131" s="87">
+      <c r="J131" s="86">
         <f t="shared" si="11"/>
         <v>35.714285714285715</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="85">
+      <c r="A132" s="84">
         <v>44025</v>
       </c>
       <c r="B132" s="27">
         <v>41754</v>
       </c>
-      <c r="C132" s="91">
+      <c r="C132" s="90">
         <v>51034</v>
       </c>
       <c r="D132" s="27">
         <v>51233</v>
       </c>
-      <c r="E132" s="86">
+      <c r="E132" s="85">
         <v>51268</v>
       </c>
-      <c r="F132" s="92">
+      <c r="F132" s="91">
         <f t="shared" si="12"/>
         <v>63</v>
       </c>
@@ -28774,33 +28784,33 @@
         <f t="shared" si="10"/>
         <v>44.285714285714285</v>
       </c>
-      <c r="H132" s="88"/>
-      <c r="I132" s="87">
+      <c r="H132" s="87"/>
+      <c r="I132" s="86">
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
-      <c r="J132" s="87">
+      <c r="J132" s="86">
         <f t="shared" si="11"/>
         <v>30.285714285714285</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="85">
+      <c r="A133" s="84">
         <v>44026</v>
       </c>
       <c r="B133" s="27">
         <v>41754</v>
       </c>
-      <c r="C133" s="91">
+      <c r="C133" s="90">
         <v>51102</v>
       </c>
       <c r="D133" s="27">
         <v>51256</v>
       </c>
-      <c r="E133" s="86">
+      <c r="E133" s="85">
         <v>51299</v>
       </c>
-      <c r="F133" s="92">
+      <c r="F133" s="91">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
@@ -28808,99 +28818,99 @@
         <f t="shared" si="10"/>
         <v>42.142857142857146</v>
       </c>
-      <c r="H133" s="88"/>
-      <c r="I133" s="87">
+      <c r="H133" s="87"/>
+      <c r="I133" s="86">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="J133" s="87">
+      <c r="J133" s="86">
         <f t="shared" si="11"/>
         <v>27.428571428571427</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="85">
+      <c r="A134" s="84">
         <v>44027</v>
       </c>
       <c r="B134" s="27">
         <v>41754</v>
       </c>
-      <c r="C134" s="91">
+      <c r="C134" s="90">
         <v>51160</v>
       </c>
       <c r="D134" s="27">
         <v>51269</v>
       </c>
-      <c r="E134" s="86">
+      <c r="E134" s="85">
         <v>51330</v>
       </c>
-      <c r="F134" s="92">
+      <c r="F134" s="91">
         <f t="shared" si="12"/>
         <v>58</v>
       </c>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
-      <c r="I134" s="87">
+      <c r="G134" s="87"/>
+      <c r="H134" s="87"/>
+      <c r="I134" s="86">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
-      <c r="J134" s="88"/>
+      <c r="J134" s="87"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="85">
+      <c r="A135" s="84">
         <v>44028</v>
       </c>
       <c r="B135" s="27">
         <v>41754</v>
       </c>
-      <c r="C135" s="91">
+      <c r="C135" s="90">
         <v>51215</v>
       </c>
       <c r="D135" s="27">
         <v>51277</v>
       </c>
-      <c r="E135" s="86">
+      <c r="E135" s="85">
         <v>51346</v>
       </c>
-      <c r="F135" s="92">
+      <c r="F135" s="91">
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="G135" s="88"/>
-      <c r="H135" s="88"/>
-      <c r="I135" s="87">
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
+      <c r="I135" s="86">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="J135" s="88"/>
+      <c r="J135" s="87"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="85">
+      <c r="A136" s="84">
         <v>44029</v>
       </c>
       <c r="B136" s="27">
         <v>41754</v>
       </c>
-      <c r="C136" s="91">
+      <c r="C136" s="90">
         <v>51264</v>
       </c>
       <c r="D136" s="27">
         <v>51277</v>
       </c>
-      <c r="E136" s="86">
+      <c r="E136" s="85">
         <v>51366</v>
       </c>
-      <c r="F136" s="92">
+      <c r="F136" s="91">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="G136" s="88"/>
-      <c r="H136" s="88"/>
-      <c r="I136" s="87">
+      <c r="G136" s="87"/>
+      <c r="H136" s="87"/>
+      <c r="I136" s="86">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="J136" s="88"/>
+      <c r="J136" s="87"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137"/>
@@ -28912,7 +28922,7 @@
       <c r="J137" s="31"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="90" t="s">
+      <c r="A138" s="89" t="s">
         <v>42</v>
       </c>
       <c r="B138"/>
@@ -29093,10 +29103,10 @@
   <dimension ref="A1:CQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30669,7 +30679,9 @@
       <c r="A18" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
@@ -30681,83 +30693,83 @@
       <c r="K18" s="76"/>
       <c r="L18" s="13">
         <f>params!$B2*L13+params!$B3*M13</f>
-        <v>2.1428571428571432</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="M18" s="13">
         <f>params!$B2*M13+params!$B3*N13</f>
-        <v>47</v>
+        <v>56.940000000000005</v>
       </c>
       <c r="N18" s="13">
         <f>params!$B2*N13+params!$B3*O13</f>
-        <v>289.85714285714289</v>
+        <v>334.08000000000004</v>
       </c>
       <c r="O18" s="13">
         <f>params!$B2*O13+params!$B3*P13</f>
-        <v>1797.2857142857144</v>
+        <v>2095.08</v>
       </c>
       <c r="P18" s="13">
         <f>params!$B2*P13+params!$B3*Q13</f>
-        <v>4648.4285714285716</v>
+        <v>4926.1400000000003</v>
       </c>
       <c r="Q18" s="13">
         <f>params!$B2*Q13+params!$B3*R13</f>
-        <v>7303.7142857142862</v>
+        <v>7561.8499999999995</v>
       </c>
       <c r="R18" s="13">
         <f>params!$B2*R13+params!$B3*S13</f>
-        <v>8534.7142857142862</v>
+        <v>8481.8700000000008</v>
       </c>
       <c r="S18" s="13">
         <f>params!$B2*S13+params!$B3*T13</f>
-        <v>7293.2857142857138</v>
+        <v>7069.9400000000005</v>
       </c>
       <c r="T18" s="13">
         <f>params!$B2*T13+params!$B3*U13</f>
-        <v>5132.8571428571431</v>
+        <v>4919.3500000000004</v>
       </c>
       <c r="U18" s="13">
         <f>params!$B2*U13+params!$B3*V13</f>
-        <v>3878.5714285714284</v>
+        <v>3866.4</v>
       </c>
       <c r="V18" s="13">
         <f>params!$B2*V13+params!$B3*W13</f>
-        <v>3286.7142857142853</v>
+        <v>3162.87</v>
       </c>
       <c r="W18" s="13">
         <f>params!$B2*W13+params!$B3*X13</f>
-        <v>2260.2857142857142</v>
+        <v>2182.4899999999998</v>
       </c>
       <c r="X18" s="13">
         <f>params!$B2*X13+params!$B3*Y13</f>
-        <v>1721.7142857142858</v>
+        <v>1697.98</v>
       </c>
       <c r="Y18" s="13">
         <f>params!$B2*Y13+params!$B3*Z13</f>
-        <v>1384.8571428571427</v>
+        <v>1336.7800000000002</v>
       </c>
       <c r="Z18" s="13">
         <f>params!$B2*Z13+params!$B3*AA13</f>
-        <v>972.14285714285711</v>
+        <v>938.56999999999994</v>
       </c>
       <c r="AA18" s="13">
         <f>params!$B2*AA13+params!$B3*AB13</f>
-        <v>707.14285714285711</v>
+        <v>689.19</v>
       </c>
       <c r="AB18" s="13">
         <f>params!$B2*AB13+params!$B3*AC13</f>
-        <v>574.28571428571433</v>
+        <v>566.78</v>
       </c>
       <c r="AC18" s="13">
         <f>params!$B2*AC13+params!$B3*AD13</f>
-        <v>460.85714285714289</v>
+        <v>444.02</v>
       </c>
       <c r="AD18" s="13">
         <f>params!$B2*AD13+params!$B3*AE13</f>
-        <v>335.57142857142856</v>
+        <v>328.37</v>
       </c>
       <c r="AE18" s="82">
         <f>params!$B2*AE13+params!$B3*AF13</f>
-        <v>168.57142857142856</v>
+        <v>138.65</v>
       </c>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
@@ -31718,7 +31730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF79277-DA21-43EE-B272-D2265A09C468}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -31737,7 +31749,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32289,13 +32301,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC75FE2-1E89-4FAE-9623-041E358FEFA0}">
-  <dimension ref="A1:BC5"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32763,26 +32775,26 @@
         <f>'step 1 - non-covid'!AE3</f>
         <v>8528</v>
       </c>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
       <c r="O4" s="80"/>
       <c r="P4" s="80"/>
       <c r="Q4" s="79">
@@ -32816,13 +32828,13 @@
         <v>234.66666666666666</v>
       </c>
       <c r="Z4" s="80"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
@@ -32948,8 +32960,17 @@
         <f t="shared" si="0"/>
         <v>8528</v>
       </c>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="13">
+        <f>B3-B5</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32962,10 +32983,10 @@
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33433,8 +33454,8 @@
         <f>'step 2 - smooth'!AE5</f>
         <v>8528</v>
       </c>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -33442,135 +33463,135 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C4:BC4)</f>
-        <v>301334.1428571429</v>
+        <v>300956.21999999991</v>
       </c>
       <c r="C4" s="13">
         <f>params!$B2*C3+params!$B3*D3</f>
-        <v>13027.142857142857</v>
+        <v>13210.12</v>
       </c>
       <c r="D4" s="13">
         <f>params!$B2*D3+params!$B3*E3</f>
-        <v>13600.285714285714</v>
+        <v>13491.96</v>
       </c>
       <c r="E4" s="13">
         <f>params!$B2*E3+params!$B3*F3</f>
-        <v>12504</v>
+        <v>12388.98</v>
       </c>
       <c r="F4" s="13">
         <f>params!$B2*F3+params!$B3*G3</f>
-        <v>11751.428571428572</v>
+        <v>11726.68</v>
       </c>
       <c r="G4" s="13">
         <f>params!$B2*G3+params!$B3*H3</f>
-        <v>11343.714285714286</v>
+        <v>11280.22</v>
       </c>
       <c r="H4" s="13">
         <f>params!$B2*H3+params!$B3*I3</f>
-        <v>10968</v>
+        <v>10963.740000000002</v>
       </c>
       <c r="I4" s="13">
         <f>params!$B2*I3+params!$B3*J3</f>
-        <v>10899.857142857143</v>
+        <v>10889.41</v>
       </c>
       <c r="J4" s="13">
         <f>params!$B2*J3+params!$B3*K3</f>
-        <v>10830.285714285714</v>
+        <v>10827.75</v>
       </c>
       <c r="K4" s="13">
         <f>params!$B2*K3+params!$B3*L3</f>
-        <v>10849.857142857143</v>
+        <v>10857.869999999999</v>
       </c>
       <c r="L4" s="13">
         <f>params!$B2*L3+params!$B3*M3</f>
-        <v>10946</v>
+        <v>10958.07</v>
       </c>
       <c r="M4" s="13">
         <f>params!$B2*M3+params!$B3*N3</f>
-        <v>10811.714285714286</v>
+        <v>10763.84</v>
       </c>
       <c r="N4" s="13">
         <f>params!$B2*N3+params!$B3*O3</f>
-        <v>10567.714285714286</v>
+        <v>10573.8</v>
       </c>
       <c r="O4" s="13">
         <f>params!$B2*O3+params!$B3*P3</f>
-        <v>11592</v>
+        <v>11826.3</v>
       </c>
       <c r="P4" s="13">
         <f>params!$B2*P3+params!$B3*Q3</f>
-        <v>13239.642857142857</v>
+        <v>13317.184999999999</v>
       </c>
       <c r="Q4" s="79">
         <f>params!$B2*Q3+params!$B3*R3</f>
-        <v>13712.285714285714</v>
+        <v>13720.755000000001</v>
       </c>
       <c r="R4" s="79">
         <f>params!$B2*R3+params!$B3*S3</f>
-        <v>13319.857142857141</v>
+        <v>13215.69</v>
       </c>
       <c r="S4" s="74">
         <f>params!$B2*S3+params!$B3*T3</f>
-        <v>12163.642857142859</v>
+        <v>12028.895</v>
       </c>
       <c r="T4" s="13">
         <f>params!$B2*T3+params!$B3*U3</f>
-        <v>11003.714285714286</v>
+        <v>10908.861666666668</v>
       </c>
       <c r="U4" s="79">
         <f>params!$B2*U3+params!$B3*V3</f>
-        <v>10097.380952380952</v>
+        <v>10009.352222222224</v>
       </c>
       <c r="V4" s="74">
         <f>params!$B2*V3+params!$B3*W3</f>
-        <v>9394.3492063492067</v>
+        <v>9345.3366666666661</v>
       </c>
       <c r="W4" s="13">
         <f>params!$B2*W3+params!$B3*X3</f>
-        <v>8941.5555555555566</v>
+        <v>8899.7444444444445</v>
       </c>
       <c r="X4" s="79">
         <f>params!$B2*X3+params!$B3*Y3</f>
-        <v>8682.7142857142844</v>
+        <v>8677.2033333333329</v>
       </c>
       <c r="Y4" s="74">
         <f>params!$B2*Y3+params!$B3*Z3</f>
-        <v>8641.2380952380954</v>
+        <v>8638.77</v>
       </c>
       <c r="Z4" s="13">
         <f>params!$B2*Z3+params!$B3*AA3</f>
-        <v>8596.7619047619046</v>
+        <v>8589.5266666666666</v>
       </c>
       <c r="AA4" s="13">
         <f>params!$B2*AA3+params!$B3*AB3</f>
-        <v>8477.5714285714275</v>
+        <v>8459.01</v>
       </c>
       <c r="AB4" s="13">
         <f>params!$B2*AB3+params!$B3*AC3</f>
-        <v>8473.7142857142862</v>
+        <v>8497.5499999999993</v>
       </c>
       <c r="AC4" s="13">
         <f>params!$B2*AC3+params!$B3*AD3</f>
-        <v>8486.2857142857138</v>
+        <v>8457.48</v>
       </c>
       <c r="AD4" s="13">
         <f>params!$B2*AD3+params!$B3*AE3</f>
-        <v>8411.4285714285725</v>
-      </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
+        <v>8432.119999999999</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="84">
-        <f>B3-B4-params!B3*C3</f>
-        <v>4873.142857142815</v>
+      <c r="B5" s="13">
+        <f>B3-B4-params!B3*C3-params!B2*AE3</f>
+        <v>8.6401996668428183E-11</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="89"/>
+      <c r="B6" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ons_weekly_deaths_2020.xlsx
+++ b/data/ons_weekly_deaths_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB7A10-D4E8-4638-8E1D-0C8F8CFCDAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3F12E-C917-4F06-BBFE-C03846D2AD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" activeTab="9" xr2:uid="{2E10C76F-872B-452C-8A27-924470753E43}"/>
   </bookViews>
@@ -5336,165 +5336,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>5-Year Average</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'step 4 - combine'!$L$2:$AD$2</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$25:$AD$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>11252.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10910</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10607.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10448.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10360.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10263.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10084.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9812.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9743.7999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9746</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9537</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9500.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9197</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9223.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9205.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9275</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9051.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9271.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E66F-4ACE-AE81-ED96FF0A843E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>Weekly deaths where COVID-19 was mentioned on the death certificate</c:v>
           </c:tx>
@@ -6365,994 +6208,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5CE0-4794-9870-32BB32A7CB78}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Weekly deaths where COVID-19 was mentioned on the death certificate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'step 4 - combine'!$C$2:$AD$2</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>43833</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43840</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43847</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43854</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43861</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'step 4 - combine'!$C$3:$AD$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5172</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8214</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8290</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6915</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5184</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3967</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2851</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2267</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>323</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5CE0-4794-9870-32BB32A7CB78}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="693274200"/>
-        <c:axId val="693275184"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="693274200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693275184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="693275184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693274200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Weekly death registrations for</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> all causes and </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>COVID-19</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Source: Office for National Statistics,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> weekly </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>data released on 28th July</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Weekly Registrations</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$2:$AD$2</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$3:$AD$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>10895</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11141</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16387</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18516</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22351</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17953</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12657</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14573</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12288</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9824</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10709</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9976</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9339</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8979</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9140</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8690</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8214-4D9F-A8F4-6EDC2D9134EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>5-Year Average</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$2:$AD$2</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$5:$AD$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>11498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10305</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10520</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10497</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10458</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9941</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10188</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9940</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8171</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9977</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9417</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9293</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9183</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8214-4D9F-A8F4-6EDC2D9134EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Weekly Registrations where COVID-19 was mentioned on the death certificate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$2:$AD$2</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43987</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44008</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'weekly deaths'!$L$13:$AD$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8237</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6035</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3930</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3810</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2589</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1822</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1588</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8214-4D9F-A8F4-6EDC2D9134EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14704,46 +13559,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17129,522 +15944,6 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22809,44 +21108,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDB196-0D1D-403F-87AB-AF757C7B6C26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23196,7 +21457,7 @@
   <dimension ref="A1:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
@@ -31730,7 +29991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF79277-DA21-43EE-B272-D2265A09C468}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>

--- a/data/ons_weekly_deaths_2020.xlsx
+++ b/data/ons_weekly_deaths_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3F12E-C917-4F06-BBFE-C03846D2AD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510033EB-19C0-435E-84FE-D15FD0AFFA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" activeTab="9" xr2:uid="{2E10C76F-872B-452C-8A27-924470753E43}"/>
   </bookViews>
@@ -12366,15 +12366,12 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Weekly Trend</c:v>
+            <c:v>Weekly Trend - Affected by Bank Holidays</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -12386,22 +12383,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'step 2 - smooth'!$L$3:$AD$3</c:f>
+              <c:f>'step 1 - non-covid'!$L$4:$AD$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>10895</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10542</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10602</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>12912</c:v>
                 </c:pt>
@@ -12434,18 +12419,6 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8862</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8556</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8373</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8608</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13004,7 +12977,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Non-COVID deaths (occurences)</c:v>
+            <c:v>Non-COVID deaths (occurrences)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -21457,7 +21430,7 @@
   <dimension ref="A1:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
@@ -30010,7 +29983,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30568,7 +30541,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31247,7 +31220,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ons_weekly_deaths_2020.xlsx
+++ b/data/ons_weekly_deaths_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\ons-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D02377B-0E38-4685-87E4-F3EBAAE3613A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80100EBA-ACD8-4C56-97A7-A483E4294CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="748" activeTab="9" xr2:uid="{2E10C76F-872B-452C-8A27-924470753E43}"/>
   </bookViews>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">Derived by Python notebook called "determine_shift_params" </t>
   </si>
   <si>
-    <t>ONS deaths by date of registration – registered by 31 July</t>
+    <t/>
   </si>
   <si>
-    <t>ONS deaths by actual date of death – registered by 31 July</t>
+    <t>ONS deaths by date of registration – registered by 14 August</t>
   </si>
   <si>
-    <t>ONS deaths by actual date of death – registered by 8 August</t>
+    <t>ONS deaths by actual date of death – registered by 14 August</t>
   </si>
   <si>
-    <t/>
+    <t>ONS deaths by actual date of death – registered by 22 August</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2027,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Source: Office for National Statistics, weekly data released on 18th August</a:t>
+              <a:t>Source: Office for National Statistics, weekly data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2628,16 +2628,16 @@
                   <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>844</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>969</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1070</c:v>
+                  <c:v>1071</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1112</c:v>
@@ -2661,7 +2661,7 @@
                   <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1266</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1127</c:v>
@@ -2676,7 +2676,7 @@
                   <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1168</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1077</c:v>
@@ -2703,7 +2703,7 @@
                   <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>792</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>752</c:v>
@@ -2742,7 +2742,7 @@
                   <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>479</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>440</c:v>
@@ -2757,7 +2757,7 @@
                   <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>395</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>376</c:v>
@@ -2772,7 +2772,7 @@
                   <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>325</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>313</c:v>
@@ -2826,7 +2826,7 @@
                   <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>133</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>149</c:v>
@@ -2880,10 +2880,10 @@
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>93</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>73</c:v>
@@ -2898,13 +2898,13 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>44</c:v>
@@ -2925,7 +2925,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>43</c:v>
@@ -2967,16 +2967,16 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>18</c:v>
@@ -3537,73 +3537,73 @@
                   <c:v>508.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>585.14285714285711</c:v>
+                  <c:v>585.28571428571433</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>663</c:v>
+                  <c:v>663.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>739.85714285714289</c:v>
+                  <c:v>740.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>825.57142857142856</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>905.42857142857144</c:v>
+                  <c:v>905.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>964.71428571428567</c:v>
+                  <c:v>965.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1025.7142857142858</c:v>
+                  <c:v>1026.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1097.8571428571429</c:v>
+                  <c:v>1098.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1140.7142857142858</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1174.5714285714287</c:v>
+                  <c:v>1174.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1222</c:v>
+                  <c:v>1222.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1230.8571428571429</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1222.5714285714287</c:v>
+                  <c:v>1222.7142857142858</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1195</c:v>
+                  <c:v>1195.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1190</c:v>
+                  <c:v>1190.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1184.5714285714287</c:v>
+                  <c:v>1184.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1160.1428571428571</c:v>
+                  <c:v>1160.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1124.2857142857142</c:v>
+                  <c:v>1124.4285714285713</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1111</c:v>
+                  <c:v>1111.1428571428571</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1087.1428571428571</c:v>
+                  <c:v>1087.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1062.4285714285713</c:v>
+                  <c:v>1062.5714285714287</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1026.1428571428571</c:v>
+                  <c:v>1026.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>989.28571428571433</c:v>
@@ -3612,25 +3612,25 @@
                   <c:v>951.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>919.57142857142856</c:v>
+                  <c:v>919.71428571428567</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>879.28571428571433</c:v>
+                  <c:v>879.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>845</c:v>
+                  <c:v>845.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>808.42857142857144</c:v>
+                  <c:v>808.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>772.85714285714289</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>741.57142857142856</c:v>
+                  <c:v>741.71428571428567</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>714.14285714285711</c:v>
+                  <c:v>714.28571428571433</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>684</c:v>
@@ -3651,19 +3651,19 @@
                   <c:v>567.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>547.28571428571433</c:v>
+                  <c:v>547.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>527.14285714285711</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>495.85714285714283</c:v>
+                  <c:v>495.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>471.57142857142856</c:v>
+                  <c:v>471.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>448.28571428571428</c:v>
+                  <c:v>448.14285714285717</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>424.85714285714283</c:v>
@@ -3672,34 +3672,34 @@
                   <c:v>407.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>392.57142857142856</c:v>
+                  <c:v>392.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>376.85714285714283</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>374.71428571428572</c:v>
+                  <c:v>374.85714285714283</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>364.57142857142856</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>353.28571428571428</c:v>
+                  <c:v>353.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>339.28571428571428</c:v>
+                  <c:v>339.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>324.57142857142856</c:v>
+                  <c:v>324.85714285714283</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>309</c:v>
+                  <c:v>309.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>298.14285714285717</c:v>
+                  <c:v>298.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>282.28571428571428</c:v>
+                  <c:v>282.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>275.14285714285717</c:v>
@@ -3735,25 +3735,25 @@
                   <c:v>186.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>176.85714285714286</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>172.57142857142858</c:v>
+                  <c:v>172.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>167.14285714285714</c:v>
+                  <c:v>167.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>155.71428571428572</c:v>
+                  <c:v>155.85714285714286</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>150.42857142857142</c:v>
+                  <c:v>150.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>141</c:v>
+                  <c:v>141.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>134.57142857142858</c:v>
+                  <c:v>134.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>128.57142857142858</c:v>
@@ -3789,70 +3789,70 @@
                   <c:v>80.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>81</c:v>
+                  <c:v>81.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>84.285714285714292</c:v>
+                  <c:v>84.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>83</c:v>
+                  <c:v>83.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>81</c:v>
+                  <c:v>81.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>80.428571428571431</c:v>
+                  <c:v>80.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>79.142857142857139</c:v>
+                  <c:v>79.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>76.714285714285708</c:v>
+                  <c:v>77.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>70.142857142857139</c:v>
+                  <c:v>70.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>64.428571428571431</c:v>
+                  <c:v>64.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>60.285714285714285</c:v>
+                  <c:v>60.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>58.142857142857146</c:v>
+                  <c:v>58.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>55.714285714285715</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>53.285714285714285</c:v>
+                  <c:v>53.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>48.714285714285715</c:v>
+                  <c:v>48.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>48.142857142857146</c:v>
+                  <c:v>48.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="122">
+                  <c:v>47.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>47.285714285714285</c:v>
                 </c:pt>
-                <c:pt idx="123">
-                  <c:v>47.142857142857146</c:v>
-                </c:pt>
                 <c:pt idx="124">
-                  <c:v>44.714285714285715</c:v>
+                  <c:v>44.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>42</c:v>
+                  <c:v>42.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>40.714285714285715</c:v>
+                  <c:v>40.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>40.142857142857146</c:v>
+                  <c:v>40.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>39.285714285714285</c:v>
+                  <c:v>39.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>34</c:v>
@@ -3876,40 +3876,40 @@
                   <c:v>26.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>28.428571428571427</c:v>
+                  <c:v>28.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>26.714285714285715</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>25.714285714285715</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>27</c:v>
+                  <c:v>27.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>25.571428571428573</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>24</c:v>
+                  <c:v>24.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>23.142857142857142</c:v>
+                  <c:v>23.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>21.142857142857142</c:v>
+                  <c:v>21.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>22.714285714285715</c:v>
+                  <c:v>22.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>22</c:v>
+                  <c:v>22.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>19.857142857142858</c:v>
+                  <c:v>20.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>20.142857142857142</c:v>
+                  <c:v>20.714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4178,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4506,19 +4506,19 @@
                   <c:v>1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5179</c:v>
+                  <c:v>5181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8222</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8292</c:v>
+                  <c:v>8294</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5191</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3972</c:v>
@@ -4527,7 +4527,7 @@
                   <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2272</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1773</c:v>
@@ -4536,28 +4536,28 @@
                   <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>422</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>330</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4826,7 +4826,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4978,19 +4978,19 @@
                   <c:v>13700.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18496.184999999998</c:v>
+                  <c:v>18498.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21942.755000000001</c:v>
+                  <c:v>21943.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21507.690000000002</c:v>
+                  <c:v>21509.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18953.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16099.861666666668</c:v>
+                  <c:v>16100.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13981.352222222224</c:v>
@@ -4999,7 +4999,7 @@
                   <c:v>12199.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11171.744444444445</c:v>
+                  <c:v>11173.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10450.203333333333</c:v>
@@ -5008,28 +5008,28 @@
                   <c:v>9944.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9531.5266666666666</c:v>
+                  <c:v>9532.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9133.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9078.5499999999993</c:v>
+                  <c:v>9081.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8879.48</c:v>
+                  <c:v>8881.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8762.119999999999</c:v>
+                  <c:v>8763.119999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8829.380000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8902.869999999999</c:v>
+                  <c:v>8904.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8933.2000000000007</c:v>
+                  <c:v>8934.2000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5329,19 +5329,19 @@
                   <c:v>1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5179</c:v>
+                  <c:v>5181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8222</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8292</c:v>
+                  <c:v>8294</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5191</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3972</c:v>
@@ -5350,7 +5350,7 @@
                   <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2272</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1773</c:v>
@@ -5359,28 +5359,28 @@
                   <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>422</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>330</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5825,7 +5825,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5977,19 +5977,19 @@
                   <c:v>13700.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18496.184999999998</c:v>
+                  <c:v>18498.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21942.755000000001</c:v>
+                  <c:v>21943.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21507.690000000002</c:v>
+                  <c:v>21509.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18953.895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16099.861666666668</c:v>
+                  <c:v>16100.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13981.352222222224</c:v>
@@ -5998,7 +5998,7 @@
                   <c:v>12199.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11171.744444444445</c:v>
+                  <c:v>11173.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10450.203333333333</c:v>
@@ -6007,28 +6007,28 @@
                   <c:v>9944.77</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9531.5266666666666</c:v>
+                  <c:v>9532.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9133.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9078.5499999999993</c:v>
+                  <c:v>9081.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8879.48</c:v>
+                  <c:v>8881.48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8762.119999999999</c:v>
+                  <c:v>8763.119999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8829.380000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8902.869999999999</c:v>
+                  <c:v>8904.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8933.2000000000007</c:v>
+                  <c:v>8934.2000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,19 +6152,19 @@
                   <c:v>1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5179</c:v>
+                  <c:v>5181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8222</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8292</c:v>
+                  <c:v>8294</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5191</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3972</c:v>
@@ -6173,7 +6173,7 @@
                   <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2272</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1773</c:v>
@@ -6182,28 +6182,28 @@
                   <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>422</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>330</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6472,7 +6472,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6678,19 +6678,19 @@
                   <c:v>13700.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18496.184999999998</c:v>
+                  <c:v>18498.184999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21942.755000000001</c:v>
+                  <c:v>21943.755000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21507.690000000002</c:v>
+                  <c:v>21509.690000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>18953.895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16099.861666666668</c:v>
+                  <c:v>16100.861666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>13981.352222222224</c:v>
@@ -6699,7 +6699,7 @@
                   <c:v>12199.336666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11171.744444444445</c:v>
+                  <c:v>11173.744444444445</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10450.203333333333</c:v>
@@ -6708,28 +6708,28 @@
                   <c:v>9944.77</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9531.5266666666666</c:v>
+                  <c:v>9532.5266666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>9133.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9078.5499999999993</c:v>
+                  <c:v>9081.5499999999993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8879.48</c:v>
+                  <c:v>8881.48</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8762.119999999999</c:v>
+                  <c:v>8763.119999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8829.380000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8902.869999999999</c:v>
+                  <c:v>8904.869999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8933.2000000000007</c:v>
+                  <c:v>8934.2000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7214,7 +7214,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Source: Office for National Statistics, weekly data released on 18th August</a:t>
+              <a:t>Source: Office for National Statistics, weekly data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8115,7 +8115,7 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>2</c:v>
@@ -8124,19 +8124,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>3</c:v>
@@ -8145,7 +8145,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>45</c:v>
@@ -8157,7 +8157,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>2</c:v>
@@ -8169,7 +8169,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>47</c:v>
@@ -9024,79 +9024,79 @@
                   <c:v>58.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>55.142857142857146</c:v>
+                  <c:v>55.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>54.714285714285715</c:v>
+                  <c:v>54.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>54.714285714285715</c:v>
+                  <c:v>54.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>54.142857142857146</c:v>
+                  <c:v>54.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>51.142857142857146</c:v>
+                  <c:v>51.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>47.142857142857146</c:v>
+                  <c:v>47.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44.714285714285715</c:v>
+                  <c:v>45.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>42.285714285714285</c:v>
+                  <c:v>42.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>42.428571428571431</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>42.714285714285715</c:v>
+                  <c:v>43.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>39.142857142857146</c:v>
+                  <c:v>39.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>35.857142857142854</c:v>
+                  <c:v>36.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>33.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>33.142857142857146</c:v>
                 </c:pt>
-                <c:pt idx="136">
-                  <c:v>32.857142857142854</c:v>
-                </c:pt>
                 <c:pt idx="137">
+                  <c:v>31.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>31.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="139">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="138">
-                  <c:v>30.857142857142858</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>30.714285714285715</c:v>
-                </c:pt>
                 <c:pt idx="140">
-                  <c:v>32.571428571428569</c:v>
+                  <c:v>32.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>31</c:v>
+                  <c:v>31.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>32.142857142857146</c:v>
+                  <c:v>32.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>29.142857142857142</c:v>
+                  <c:v>29.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27.714285714285715</c:v>
+                  <c:v>27.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="145">
+                  <c:v>28.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>28.142857142857142</c:v>
                 </c:pt>
-                <c:pt idx="146">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="147">
-                  <c:v>24.571428571428573</c:v>
+                  <c:v>24.714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9966,7 +9966,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10784,7 +10784,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10936,19 +10936,19 @@
                   <c:v>1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5179</c:v>
+                  <c:v>5181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8222</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8292</c:v>
+                  <c:v>8294</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5191</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3972</c:v>
@@ -10957,7 +10957,7 @@
                   <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2272</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1773</c:v>
@@ -10966,28 +10966,28 @@
                   <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>422</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>330</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11434,7 +11434,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12090,7 +12090,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12242,19 +12242,19 @@
                   <c:v>1874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5179</c:v>
+                  <c:v>5181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8222</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8292</c:v>
+                  <c:v>8294</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5191</c:v>
+                  <c:v>5192</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3972</c:v>
@@ -12263,7 +12263,7 @@
                   <c:v>2854</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2272</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1773</c:v>
@@ -12272,28 +12272,28 @@
                   <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>422</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>330</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>187</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12734,7 +12734,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13384,7 +13384,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14035,7 +14035,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>data released on 18th August</a:t>
+              <a:t>data released on 25th August</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22725,10 +22725,10 @@
   <dimension ref="A1:BC63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM(C3:BB3)</f>
-        <v>51935</v>
+        <v>52091</v>
       </c>
       <c r="C3" s="13">
         <f>'weekly deaths'!C15</f>
@@ -23134,15 +23134,15 @@
       </c>
       <c r="P3" s="13">
         <f>'weekly deaths'!P15</f>
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="Q3" s="13">
         <f>'weekly deaths'!Q15</f>
-        <v>8222</v>
+        <v>8223</v>
       </c>
       <c r="R3" s="13">
         <f>'weekly deaths'!R15</f>
-        <v>8292</v>
+        <v>8294</v>
       </c>
       <c r="S3" s="13">
         <f>'weekly deaths'!S15</f>
@@ -23150,7 +23150,7 @@
       </c>
       <c r="T3" s="13">
         <f>'weekly deaths'!T15</f>
-        <v>5191</v>
+        <v>5192</v>
       </c>
       <c r="U3" s="13">
         <f>'weekly deaths'!U15</f>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="W3" s="13">
         <f>'weekly deaths'!W15</f>
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="X3" s="13">
         <f>'weekly deaths'!X15</f>
@@ -23174,7 +23174,7 @@
       </c>
       <c r="Z3" s="13">
         <f>'weekly deaths'!Z15</f>
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AA3" s="13">
         <f>'weekly deaths'!AA15</f>
@@ -23182,15 +23182,15 @@
       </c>
       <c r="AB3" s="13">
         <f>'weekly deaths'!AB15</f>
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AC3" s="13">
         <f>'weekly deaths'!AC15</f>
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AD3" s="13">
         <f>'weekly deaths'!AD15</f>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE3" s="13">
         <f>'weekly deaths'!AE15</f>
@@ -23198,15 +23198,19 @@
       </c>
       <c r="AF3" s="13">
         <f>'weekly deaths'!AF15</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG3" s="13">
         <f>'weekly deaths'!AG15</f>
-        <v>159</v>
-      </c>
-      <c r="AH3" s="81">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="13">
         <f>'weekly deaths'!AH15</f>
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="AI3" s="81">
+        <f>'weekly deaths'!AI15</f>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -23215,7 +23219,7 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C4:BB4)</f>
-        <v>327051.66999999993</v>
+        <v>336088.46999999991</v>
       </c>
       <c r="C4" s="13">
         <f>'step 3 - shift'!C4</f>
@@ -23341,7 +23345,11 @@
         <f>'step 3 - shift'!AG4</f>
         <v>8774.2000000000007</v>
       </c>
-      <c r="AH4" s="89"/>
+      <c r="AH4" s="13">
+        <f>'step 3 - shift'!AH4</f>
+        <v>9036.7999999999993</v>
+      </c>
+      <c r="AI4" s="89"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -23349,7 +23357,7 @@
       </c>
       <c r="B5" s="13">
         <f>SUM(C5:BB5)</f>
-        <v>378882.66999999993</v>
+        <v>388064.46999999991</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" ref="C5:I5" si="0">C3+C4</f>
@@ -23405,15 +23413,15 @@
       </c>
       <c r="P5" s="73">
         <f t="shared" si="1"/>
-        <v>18496.184999999998</v>
+        <v>18498.184999999998</v>
       </c>
       <c r="Q5" s="73">
         <f t="shared" si="1"/>
-        <v>21942.755000000001</v>
+        <v>21943.755000000001</v>
       </c>
       <c r="R5" s="73">
         <f t="shared" si="1"/>
-        <v>21507.690000000002</v>
+        <v>21509.690000000002</v>
       </c>
       <c r="S5" s="73">
         <f t="shared" si="1"/>
@@ -23421,7 +23429,7 @@
       </c>
       <c r="T5" s="73">
         <f t="shared" si="1"/>
-        <v>16099.861666666668</v>
+        <v>16100.861666666668</v>
       </c>
       <c r="U5" s="73">
         <f t="shared" si="1"/>
@@ -23433,7 +23441,7 @@
       </c>
       <c r="W5" s="73">
         <f t="shared" si="1"/>
-        <v>11171.744444444445</v>
+        <v>11173.744444444445</v>
       </c>
       <c r="X5" s="73">
         <f t="shared" si="1"/>
@@ -23445,7 +23453,7 @@
       </c>
       <c r="Z5" s="73">
         <f t="shared" si="1"/>
-        <v>9531.5266666666666</v>
+        <v>9532.5266666666666</v>
       </c>
       <c r="AA5" s="73">
         <f t="shared" si="1"/>
@@ -23453,15 +23461,15 @@
       </c>
       <c r="AB5" s="73">
         <f t="shared" si="1"/>
-        <v>9078.5499999999993</v>
+        <v>9081.5499999999993</v>
       </c>
       <c r="AC5" s="73">
         <f t="shared" si="1"/>
-        <v>8879.48</v>
+        <v>8881.48</v>
       </c>
       <c r="AD5" s="73">
         <f t="shared" si="1"/>
-        <v>8762.119999999999</v>
+        <v>8763.119999999999</v>
       </c>
       <c r="AE5" s="73">
         <f t="shared" ref="AE5:AF5" si="2">AE3+AE4</f>
@@ -23469,13 +23477,17 @@
       </c>
       <c r="AF5" s="73">
         <f t="shared" si="2"/>
-        <v>8902.869999999999</v>
+        <v>8904.869999999999</v>
       </c>
       <c r="AG5" s="73">
-        <f t="shared" ref="AG5:AH5" si="3">AG3+AG4</f>
-        <v>8933.2000000000007</v>
-      </c>
-      <c r="AH5" s="89"/>
+        <f t="shared" ref="AG5" si="3">AG3+AG4</f>
+        <v>8934.2000000000007</v>
+      </c>
+      <c r="AH5" s="73">
+        <f t="shared" ref="AG5:AH5" si="4">AH3+AH4</f>
+        <v>9163.7999999999993</v>
+      </c>
+      <c r="AI5" s="89"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
@@ -23483,7 +23495,7 @@
       </c>
       <c r="B6" s="13">
         <f>SUM(C6:BB6)</f>
-        <v>56792.47</v>
+        <v>56809.47</v>
       </c>
       <c r="C6" s="13">
         <f>C5-'weekly deaths'!C25</f>
@@ -23539,15 +23551,15 @@
       </c>
       <c r="P6" s="13">
         <f>P5-'weekly deaths'!P25</f>
-        <v>8135.784999999998</v>
+        <v>8137.784999999998</v>
       </c>
       <c r="Q6" s="13">
         <f>Q5-'weekly deaths'!Q25</f>
-        <v>11679.355000000001</v>
+        <v>11680.355000000001</v>
       </c>
       <c r="R6" s="13">
         <f>R5-'weekly deaths'!R25</f>
-        <v>11422.890000000003</v>
+        <v>11424.890000000003</v>
       </c>
       <c r="S6" s="13">
         <f>S5-'weekly deaths'!S25</f>
@@ -23555,7 +23567,7 @@
       </c>
       <c r="T6" s="13">
         <f>T5-'weekly deaths'!T25</f>
-        <v>6356.0616666666683</v>
+        <v>6357.0616666666683</v>
       </c>
       <c r="U6" s="13">
         <f>U5-'weekly deaths'!U25</f>
@@ -23567,7 +23579,7 @@
       </c>
       <c r="W6" s="13">
         <f>W5-'weekly deaths'!W25</f>
-        <v>1671.5444444444438</v>
+        <v>1673.5444444444438</v>
       </c>
       <c r="X6" s="13">
         <f>X5-'weekly deaths'!X25</f>
@@ -23579,7 +23591,7 @@
       </c>
       <c r="Z6" s="13">
         <f>Z5-'weekly deaths'!Z25</f>
-        <v>325.92666666666628</v>
+        <v>326.92666666666628</v>
       </c>
       <c r="AA6" s="13">
         <f>AA5-'weekly deaths'!AA25</f>
@@ -23587,15 +23599,15 @@
       </c>
       <c r="AB6" s="13">
         <f>AB5-'weekly deaths'!AB25</f>
-        <v>26.949999999998909</v>
+        <v>29.949999999998909</v>
       </c>
       <c r="AC6" s="13">
         <f>AC5-'weekly deaths'!AC25</f>
-        <v>-392.1200000000008</v>
+        <v>-390.1200000000008</v>
       </c>
       <c r="AD6" s="13">
         <f>AD5-'weekly deaths'!AD25</f>
-        <v>-140.88000000000102</v>
+        <v>-139.88000000000102</v>
       </c>
       <c r="AE6" s="13">
         <f>AE5-'weekly deaths'!AE25</f>
@@ -23603,10 +23615,11 @@
       </c>
       <c r="AF6" s="13">
         <f>AF5-'weekly deaths'!AF25</f>
-        <v>-222.93000000000029</v>
+        <v>-220.93000000000029</v>
       </c>
       <c r="AG6" s="89"/>
       <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
@@ -23614,7 +23627,7 @@
       </c>
       <c r="B7" s="13">
         <f>SUM(C7:BB7)</f>
-        <v>61225.62000000001</v>
+        <v>61234.62000000001</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
@@ -23632,52 +23645,52 @@
         <v>368.59999999999854</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:Z7" si="4">O6</f>
+        <f t="shared" ref="O7:Z7" si="5">O6</f>
         <v>3251.5</v>
       </c>
       <c r="P7" s="13">
-        <f t="shared" si="4"/>
-        <v>8135.784999999998</v>
+        <f t="shared" si="5"/>
+        <v>8137.784999999998</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="4"/>
-        <v>11679.355000000001</v>
+        <f t="shared" si="5"/>
+        <v>11680.355000000001</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" si="4"/>
-        <v>11422.890000000003</v>
+        <f t="shared" si="5"/>
+        <v>11424.890000000003</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9141.6949999999997</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="4"/>
-        <v>6356.0616666666683</v>
+        <f t="shared" si="5"/>
+        <v>6357.0616666666683</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4235.3522222222236</v>
       </c>
       <c r="V7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2662.3366666666661</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" si="4"/>
-        <v>1671.5444444444438</v>
+        <f t="shared" si="5"/>
+        <v>1673.5444444444438</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1253.2033333333329</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>721.3700000000008</v>
       </c>
       <c r="Z7" s="13">
-        <f t="shared" si="4"/>
-        <v>325.92666666666628</v>
+        <f t="shared" si="5"/>
+        <v>326.92666666666628</v>
       </c>
       <c r="AA7" s="89"/>
       <c r="AB7" s="89"/>
@@ -23687,6 +23700,7 @@
       <c r="AF7" s="89"/>
       <c r="AG7" s="89"/>
       <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
@@ -23747,13 +23761,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA7D257-21A9-4EF7-8F4D-02D09C7A68BB}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A161" sqref="A161"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23770,17 +23784,17 @@
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="31" t="str">
         <f>B1</f>
-        <v>ONS deaths by date of registration – registered by 31 July</v>
+        <v>ONS deaths by date of registration – registered by 14 August</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>16</v>
@@ -23790,7 +23804,7 @@
       </c>
       <c r="H1" s="32" t="str">
         <f>D1</f>
-        <v>ONS deaths by actual date of death – registered by 8 August</v>
+        <v>ONS deaths by actual date of death – registered by 22 August</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>17</v>
@@ -24343,7 +24357,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="21">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D20" s="22">
         <v>956</v>
@@ -24374,7 +24388,7 @@
         <v>238</v>
       </c>
       <c r="C21" s="21">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D21" s="22">
         <v>1203</v>
@@ -24405,7 +24419,7 @@
         <v>364</v>
       </c>
       <c r="C22" s="21">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D22" s="22">
         <v>1511</v>
@@ -24436,7 +24450,7 @@
         <v>471</v>
       </c>
       <c r="C23" s="21">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D23" s="22">
         <v>1895</v>
@@ -24467,7 +24481,7 @@
         <v>665</v>
       </c>
       <c r="C24" s="21">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D24" s="22">
         <v>2326</v>
@@ -24498,7 +24512,7 @@
         <v>685</v>
       </c>
       <c r="C25" s="21">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="D25" s="22">
         <v>2796</v>
@@ -24529,7 +24543,7 @@
         <v>690</v>
       </c>
       <c r="C26" s="21">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="D26" s="22">
         <v>3349</v>
@@ -24549,7 +24563,7 @@
       </c>
       <c r="I26" s="34">
         <f t="shared" si="3"/>
-        <v>585.14285714285711</v>
+        <v>585.28571428571433</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -24560,7 +24574,7 @@
         <v>1154</v>
       </c>
       <c r="C27" s="21">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="D27" s="22">
         <v>3999</v>
@@ -24580,7 +24594,7 @@
       </c>
       <c r="I27" s="34">
         <f t="shared" si="3"/>
-        <v>663</v>
+        <v>663.14285714285711</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -24591,7 +24605,7 @@
         <v>1734</v>
       </c>
       <c r="C28" s="21">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="D28" s="22">
         <v>4763</v>
@@ -24611,7 +24625,7 @@
       </c>
       <c r="I28" s="34">
         <f t="shared" si="3"/>
-        <v>739.85714285714289</v>
+        <v>740.14285714285711</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -24622,10 +24636,10 @@
         <v>2443</v>
       </c>
       <c r="C29" s="21">
-        <v>5606</v>
+        <v>5608</v>
       </c>
       <c r="D29" s="22">
-        <v>5607</v>
+        <v>5608</v>
       </c>
       <c r="E29" s="34">
         <f t="shared" si="0"/>
@@ -24638,11 +24652,11 @@
       <c r="G29" s="74"/>
       <c r="H29" s="34">
         <f t="shared" si="1"/>
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I29" s="34">
         <f t="shared" si="3"/>
-        <v>825.57142857142856</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -24653,10 +24667,10 @@
         <v>3265</v>
       </c>
       <c r="C30" s="21">
-        <v>6535</v>
+        <v>6537</v>
       </c>
       <c r="D30" s="22">
-        <v>6536</v>
+        <v>6537</v>
       </c>
       <c r="E30" s="34">
         <f t="shared" si="0"/>
@@ -24673,7 +24687,7 @@
       </c>
       <c r="I30" s="34">
         <f t="shared" si="3"/>
-        <v>905.42857142857144</v>
+        <v>905.85714285714289</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -24684,10 +24698,10 @@
         <v>4170</v>
       </c>
       <c r="C31" s="21">
-        <v>7504</v>
+        <v>7507</v>
       </c>
       <c r="D31" s="22">
-        <v>7505</v>
+        <v>7507</v>
       </c>
       <c r="E31" s="34">
         <f t="shared" si="0"/>
@@ -24700,11 +24714,11 @@
       <c r="G31" s="74"/>
       <c r="H31" s="34">
         <f t="shared" si="1"/>
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="I31" s="34">
         <f t="shared" si="3"/>
-        <v>964.71428571428567</v>
+        <v>965.14285714285711</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -24715,10 +24729,10 @@
         <v>4276</v>
       </c>
       <c r="C32" s="21">
-        <v>8574</v>
+        <v>8577</v>
       </c>
       <c r="D32" s="22">
-        <v>8575</v>
+        <v>8578</v>
       </c>
       <c r="E32" s="34">
         <f t="shared" si="0"/>
@@ -24731,11 +24745,11 @@
       <c r="G32" s="74"/>
       <c r="H32" s="34">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I32" s="34">
         <f t="shared" si="3"/>
-        <v>1025.7142857142858</v>
+        <v>1026.1428571428571</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -24746,10 +24760,10 @@
         <v>4298</v>
       </c>
       <c r="C33" s="21">
-        <v>9686</v>
+        <v>9689</v>
       </c>
       <c r="D33" s="22">
-        <v>9687</v>
+        <v>9690</v>
       </c>
       <c r="E33" s="34">
         <f t="shared" si="0"/>
@@ -24766,7 +24780,7 @@
       </c>
       <c r="I33" s="34">
         <f t="shared" si="3"/>
-        <v>1097.8571428571429</v>
+        <v>1098.1428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -24777,10 +24791,10 @@
         <v>5431</v>
       </c>
       <c r="C34" s="21">
-        <v>10750</v>
+        <v>10754</v>
       </c>
       <c r="D34" s="22">
-        <v>10752</v>
+        <v>10755</v>
       </c>
       <c r="E34" s="34">
         <f t="shared" si="0"/>
@@ -24800,7 +24814,7 @@
       </c>
       <c r="I34" s="34">
         <f t="shared" si="3"/>
-        <v>1140.7142857142858</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -24811,10 +24825,10 @@
         <v>6807</v>
       </c>
       <c r="C35" s="21">
-        <v>11941</v>
+        <v>11946</v>
       </c>
       <c r="D35" s="22">
-        <v>11943</v>
+        <v>11946</v>
       </c>
       <c r="E35" s="34">
         <f t="shared" ref="E35:E66" si="5">B35-B34</f>
@@ -24834,7 +24848,7 @@
       </c>
       <c r="I35" s="34">
         <f t="shared" si="3"/>
-        <v>1174.5714285714287</v>
+        <v>1174.7142857142858</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -24845,10 +24859,10 @@
         <v>8268</v>
       </c>
       <c r="C36" s="21">
-        <v>13290</v>
+        <v>13295</v>
       </c>
       <c r="D36" s="22">
-        <v>13292</v>
+        <v>13295</v>
       </c>
       <c r="E36" s="34">
         <f t="shared" si="5"/>
@@ -24879,10 +24893,10 @@
         <v>9797</v>
       </c>
       <c r="C37" s="21">
-        <v>14519</v>
+        <v>14524</v>
       </c>
       <c r="D37" s="22">
-        <v>14521</v>
+        <v>14524</v>
       </c>
       <c r="E37" s="34">
         <f t="shared" si="5"/>
@@ -24902,7 +24916,7 @@
       </c>
       <c r="I37" s="34">
         <f t="shared" si="3"/>
-        <v>1222</v>
+        <v>1222.1428571428571</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -24913,10 +24927,10 @@
         <v>10413</v>
       </c>
       <c r="C38" s="21">
-        <v>15725</v>
+        <v>15730</v>
       </c>
       <c r="D38" s="22">
-        <v>15727</v>
+        <v>15730</v>
       </c>
       <c r="E38" s="34">
         <f t="shared" si="5"/>
@@ -24936,7 +24950,7 @@
       </c>
       <c r="I38" s="34">
         <f t="shared" si="3"/>
-        <v>1230.8571428571429</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -24947,10 +24961,10 @@
         <v>10805</v>
       </c>
       <c r="C39" s="21">
-        <v>16973</v>
+        <v>16978</v>
       </c>
       <c r="D39" s="22">
-        <v>16975</v>
+        <v>16978</v>
       </c>
       <c r="E39" s="34">
         <f t="shared" si="5"/>
@@ -24970,7 +24984,7 @@
       </c>
       <c r="I39" s="34">
         <f t="shared" si="3"/>
-        <v>1222.5714285714287</v>
+        <v>1222.7142857142858</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -24981,10 +24995,10 @@
         <v>10882</v>
       </c>
       <c r="C40" s="21">
-        <v>18239</v>
+        <v>18244</v>
       </c>
       <c r="D40" s="22">
-        <v>18241</v>
+        <v>18245</v>
       </c>
       <c r="E40" s="34">
         <f t="shared" si="5"/>
@@ -25000,11 +25014,11 @@
       </c>
       <c r="H40" s="34">
         <f t="shared" si="6"/>
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="I40" s="34">
         <f t="shared" si="3"/>
-        <v>1195</v>
+        <v>1195.1428571428571</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -25015,10 +25029,10 @@
         <v>11454</v>
       </c>
       <c r="C41" s="21">
-        <v>19366</v>
+        <v>19371</v>
       </c>
       <c r="D41" s="22">
-        <v>19368</v>
+        <v>19372</v>
       </c>
       <c r="E41" s="34">
         <f t="shared" si="5"/>
@@ -25038,7 +25052,7 @@
       </c>
       <c r="I41" s="34">
         <f t="shared" si="3"/>
-        <v>1190</v>
+        <v>1190.1428571428571</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -25049,10 +25063,10 @@
         <v>13529</v>
       </c>
       <c r="C42" s="21">
-        <v>20499</v>
+        <v>20504</v>
       </c>
       <c r="D42" s="22">
-        <v>20501</v>
+        <v>20505</v>
       </c>
       <c r="E42" s="34">
         <f t="shared" si="5"/>
@@ -25072,7 +25086,7 @@
       </c>
       <c r="I42" s="34">
         <f t="shared" si="3"/>
-        <v>1184.5714285714287</v>
+        <v>1184.8571428571429</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -25083,10 +25097,10 @@
         <v>15602</v>
       </c>
       <c r="C43" s="21">
-        <v>21655</v>
+        <v>21660</v>
       </c>
       <c r="D43" s="22">
-        <v>21657</v>
+        <v>21661</v>
       </c>
       <c r="E43" s="34">
         <f t="shared" si="5"/>
@@ -25106,7 +25120,7 @@
       </c>
       <c r="I43" s="34">
         <f t="shared" si="3"/>
-        <v>1160.1428571428571</v>
+        <v>1160.4285714285713</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -25117,10 +25131,10 @@
         <v>17461</v>
       </c>
       <c r="C44" s="21">
-        <v>22848</v>
+        <v>22853</v>
       </c>
       <c r="D44" s="22">
-        <v>22851</v>
+        <v>22855</v>
       </c>
       <c r="E44" s="34">
         <f t="shared" si="5"/>
@@ -25140,7 +25154,7 @@
       </c>
       <c r="I44" s="34">
         <f t="shared" si="3"/>
-        <v>1124.2857142857142</v>
+        <v>1124.4285714285713</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -25151,10 +25165,10 @@
         <v>19215</v>
       </c>
       <c r="C45" s="21">
-        <v>24015</v>
+        <v>24021</v>
       </c>
       <c r="D45" s="22">
-        <v>24019</v>
+        <v>24024</v>
       </c>
       <c r="E45" s="34">
         <f t="shared" si="5"/>
@@ -25170,11 +25184,11 @@
       </c>
       <c r="H45" s="34">
         <f t="shared" si="6"/>
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="3"/>
-        <v>1111</v>
+        <v>1111.1428571428571</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -25185,10 +25199,10 @@
         <v>19462</v>
       </c>
       <c r="C46" s="25">
-        <v>25091</v>
+        <v>25098</v>
       </c>
       <c r="D46" s="22">
-        <v>25096</v>
+        <v>25101</v>
       </c>
       <c r="E46" s="34">
         <f t="shared" si="5"/>
@@ -25208,7 +25222,7 @@
       </c>
       <c r="I46" s="34">
         <f t="shared" si="3"/>
-        <v>1087.1428571428571</v>
+        <v>1087.2857142857142</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -25219,10 +25233,10 @@
         <v>19500</v>
       </c>
       <c r="C47" s="25">
-        <v>26106</v>
+        <v>26113</v>
       </c>
       <c r="D47" s="22">
-        <v>26111</v>
+        <v>26116</v>
       </c>
       <c r="E47" s="34">
         <f t="shared" si="5"/>
@@ -25242,7 +25256,7 @@
       </c>
       <c r="I47" s="34">
         <f t="shared" si="3"/>
-        <v>1062.4285714285713</v>
+        <v>1062.5714285714287</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -25253,10 +25267,10 @@
         <v>21271</v>
       </c>
       <c r="C48" s="25">
-        <v>27140</v>
+        <v>27147</v>
       </c>
       <c r="D48" s="22">
-        <v>27145</v>
+        <v>27150</v>
       </c>
       <c r="E48" s="34">
         <f t="shared" si="5"/>
@@ -25276,7 +25290,7 @@
       </c>
       <c r="I48" s="34">
         <f t="shared" si="3"/>
-        <v>1026.1428571428571</v>
+        <v>1026.2857142857142</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -25287,10 +25301,10 @@
         <v>23176</v>
       </c>
       <c r="C49" s="25">
-        <v>28106</v>
+        <v>28113</v>
       </c>
       <c r="D49" s="22">
-        <v>28111</v>
+        <v>28116</v>
       </c>
       <c r="E49" s="34">
         <f t="shared" si="5"/>
@@ -25321,10 +25335,10 @@
         <v>24809</v>
       </c>
       <c r="C50" s="25">
-        <v>29089</v>
+        <v>29096</v>
       </c>
       <c r="D50" s="22">
-        <v>29094</v>
+        <v>29099</v>
       </c>
       <c r="E50" s="34">
         <f t="shared" si="5"/>
@@ -25352,10 +25366,10 @@
         <v>26255</v>
       </c>
       <c r="C51" s="25">
-        <v>30029</v>
+        <v>30036</v>
       </c>
       <c r="D51" s="22">
-        <v>30034</v>
+        <v>30039</v>
       </c>
       <c r="E51" s="34">
         <f t="shared" si="5"/>
@@ -25372,7 +25386,7 @@
       </c>
       <c r="I51" s="34">
         <f t="shared" si="3"/>
-        <v>919.57142857142856</v>
+        <v>919.71428571428567</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -25383,10 +25397,10 @@
         <v>27511</v>
       </c>
       <c r="C52" s="25">
-        <v>30939</v>
+        <v>30946</v>
       </c>
       <c r="D52" s="22">
-        <v>30944</v>
+        <v>30949</v>
       </c>
       <c r="E52" s="34">
         <f t="shared" si="5"/>
@@ -25403,7 +25417,7 @@
       </c>
       <c r="I52" s="34">
         <f t="shared" si="3"/>
-        <v>879.28571428571433</v>
+        <v>879.42857142857144</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -25414,10 +25428,10 @@
         <v>27614</v>
       </c>
       <c r="C53" s="25">
-        <v>31751</v>
+        <v>31758</v>
       </c>
       <c r="D53" s="22">
-        <v>31756</v>
+        <v>31761</v>
       </c>
       <c r="E53" s="34">
         <f t="shared" si="5"/>
@@ -25434,7 +25448,7 @@
       </c>
       <c r="I53" s="34">
         <f t="shared" si="3"/>
-        <v>845</v>
+        <v>845.14285714285711</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -25445,10 +25459,10 @@
         <v>27643</v>
       </c>
       <c r="C54" s="25">
-        <v>32543</v>
+        <v>32550</v>
       </c>
       <c r="D54" s="22">
-        <v>32548</v>
+        <v>32554</v>
       </c>
       <c r="E54" s="34">
         <f t="shared" si="5"/>
@@ -25461,11 +25475,11 @@
       <c r="G54" s="74"/>
       <c r="H54" s="34">
         <f t="shared" si="6"/>
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I54" s="34">
         <f t="shared" si="3"/>
-        <v>808.42857142857144</v>
+        <v>808.57142857142856</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -25476,10 +25490,10 @@
         <v>29028</v>
       </c>
       <c r="C55" s="25">
-        <v>33295</v>
+        <v>33302</v>
       </c>
       <c r="D55" s="22">
-        <v>33300</v>
+        <v>33306</v>
       </c>
       <c r="E55" s="34">
         <f t="shared" si="5"/>
@@ -25496,7 +25510,7 @@
       </c>
       <c r="I55" s="34">
         <f t="shared" si="3"/>
-        <v>772.85714285714289</v>
+        <v>773</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -25507,10 +25521,10 @@
         <v>30463</v>
       </c>
       <c r="C56" s="25">
-        <v>34021</v>
+        <v>34028</v>
       </c>
       <c r="D56" s="22">
-        <v>34026</v>
+        <v>34032</v>
       </c>
       <c r="E56" s="34">
         <f t="shared" si="5"/>
@@ -25527,7 +25541,7 @@
       </c>
       <c r="I56" s="34">
         <f t="shared" si="3"/>
-        <v>741.57142857142856</v>
+        <v>741.71428571428567</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -25538,10 +25552,10 @@
         <v>31680</v>
       </c>
       <c r="C57" s="25">
-        <v>34748</v>
+        <v>34755</v>
       </c>
       <c r="D57" s="22">
-        <v>34753</v>
+        <v>34759</v>
       </c>
       <c r="E57" s="34">
         <f t="shared" si="5"/>
@@ -25558,7 +25572,7 @@
       </c>
       <c r="I57" s="34">
         <f t="shared" si="3"/>
-        <v>714.14285714285711</v>
+        <v>714.28571428571433</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -25569,10 +25583,10 @@
         <v>32672</v>
       </c>
       <c r="C58" s="25">
-        <v>35439</v>
+        <v>35446</v>
       </c>
       <c r="D58" s="22">
-        <v>35444</v>
+        <v>35450</v>
       </c>
       <c r="E58" s="34">
         <f t="shared" si="5"/>
@@ -25600,10 +25614,10 @@
         <v>33602</v>
       </c>
       <c r="C59" s="25">
-        <v>36130</v>
+        <v>36137</v>
       </c>
       <c r="D59" s="22">
-        <v>36135</v>
+        <v>36141</v>
       </c>
       <c r="E59" s="34">
         <f t="shared" si="5"/>
@@ -25631,10 +25645,10 @@
         <v>33665</v>
       </c>
       <c r="C60" s="25">
-        <v>36750</v>
+        <v>36757</v>
       </c>
       <c r="D60" s="22">
-        <v>36755</v>
+        <v>36761</v>
       </c>
       <c r="E60" s="34">
         <f t="shared" si="5"/>
@@ -25662,10 +25676,10 @@
         <v>33671</v>
       </c>
       <c r="C61" s="25">
-        <v>37331</v>
+        <v>37338</v>
       </c>
       <c r="D61" s="22">
-        <v>37336</v>
+        <v>37342</v>
       </c>
       <c r="E61" s="34">
         <f t="shared" si="5"/>
@@ -25693,10 +25707,10 @@
         <v>34635</v>
       </c>
       <c r="C62" s="25">
-        <v>37926</v>
+        <v>37933</v>
       </c>
       <c r="D62" s="22">
-        <v>37931</v>
+        <v>37937</v>
       </c>
       <c r="E62" s="34">
         <f t="shared" si="5"/>
@@ -25727,10 +25741,10 @@
         <v>35704</v>
       </c>
       <c r="C63" s="25">
-        <v>38492</v>
+        <v>38499</v>
       </c>
       <c r="D63" s="22">
-        <v>38497</v>
+        <v>38503</v>
       </c>
       <c r="E63" s="34">
         <f t="shared" si="5"/>
@@ -25761,10 +25775,10 @@
         <v>36649</v>
       </c>
       <c r="C64" s="25">
-        <v>39047</v>
+        <v>39054</v>
       </c>
       <c r="D64" s="22">
-        <v>39052</v>
+        <v>39058</v>
       </c>
       <c r="E64" s="34">
         <f t="shared" si="5"/>
@@ -25784,7 +25798,7 @@
       </c>
       <c r="I64" s="34">
         <f t="shared" si="3"/>
-        <v>547.28571428571433</v>
+        <v>547.14285714285711</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -25795,10 +25809,10 @@
         <v>37534</v>
       </c>
       <c r="C65" s="25">
-        <v>39606</v>
+        <v>39613</v>
       </c>
       <c r="D65" s="22">
-        <v>39611</v>
+        <v>39617</v>
       </c>
       <c r="E65" s="34">
         <f t="shared" si="5"/>
@@ -25818,7 +25832,7 @@
       </c>
       <c r="I65" s="34">
         <f t="shared" si="3"/>
-        <v>527.14285714285711</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -25829,10 +25843,10 @@
         <v>37568</v>
       </c>
       <c r="C66" s="25">
-        <v>40102</v>
+        <v>40109</v>
       </c>
       <c r="D66" s="22">
-        <v>40107</v>
+        <v>40113</v>
       </c>
       <c r="E66" s="34">
         <f t="shared" si="5"/>
@@ -25852,7 +25866,7 @@
       </c>
       <c r="I66" s="34">
         <f t="shared" si="3"/>
-        <v>495.85714285714283</v>
+        <v>495.71428571428572</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -25863,10 +25877,10 @@
         <v>37612</v>
       </c>
       <c r="C67" s="25">
-        <v>40580</v>
+        <v>40587</v>
       </c>
       <c r="D67" s="22">
-        <v>40586</v>
+        <v>40591</v>
       </c>
       <c r="E67" s="34">
         <f t="shared" ref="E67:E98" si="7">B67-B66</f>
@@ -25882,11 +25896,11 @@
       </c>
       <c r="H67" s="34">
         <f t="shared" ref="H67:H98" si="8">D67-D66</f>
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I67" s="34">
         <f t="shared" si="3"/>
-        <v>471.57142857142856</v>
+        <v>471.42857142857144</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -25897,10 +25911,10 @@
         <v>37615</v>
       </c>
       <c r="C68" s="25">
-        <v>41020</v>
+        <v>41027</v>
       </c>
       <c r="D68" s="22">
-        <v>41026</v>
+        <v>41031</v>
       </c>
       <c r="E68" s="34">
         <f t="shared" si="7"/>
@@ -25920,7 +25934,7 @@
       </c>
       <c r="I68" s="34">
         <f t="shared" si="3"/>
-        <v>448.28571428571428</v>
+        <v>448.14285714285717</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -25931,10 +25945,10 @@
         <v>38541</v>
       </c>
       <c r="C69" s="25">
-        <v>41396</v>
+        <v>41403</v>
       </c>
       <c r="D69" s="22">
-        <v>41402</v>
+        <v>41407</v>
       </c>
       <c r="E69" s="34">
         <f t="shared" si="7"/>
@@ -25965,10 +25979,10 @@
         <v>39520</v>
       </c>
       <c r="C70" s="25">
-        <v>41792</v>
+        <v>41799</v>
       </c>
       <c r="D70" s="22">
-        <v>41798</v>
+        <v>41803</v>
       </c>
       <c r="E70" s="34">
         <f t="shared" si="7"/>
@@ -25999,10 +26013,10 @@
         <v>40277</v>
       </c>
       <c r="C71" s="25">
-        <v>42184</v>
+        <v>42191</v>
       </c>
       <c r="D71" s="22">
-        <v>42190</v>
+        <v>42195</v>
       </c>
       <c r="E71" s="34">
         <f t="shared" si="7"/>
@@ -26022,7 +26036,7 @@
       </c>
       <c r="I71" s="34">
         <f t="shared" ref="I71:I134" si="11">AVERAGE(H68:H74)</f>
-        <v>392.57142857142856</v>
+        <v>392.71428571428572</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -26033,10 +26047,10 @@
         <v>40883</v>
       </c>
       <c r="C72" s="25">
-        <v>42579</v>
+        <v>42587</v>
       </c>
       <c r="D72" s="22">
-        <v>42585</v>
+        <v>42591</v>
       </c>
       <c r="E72" s="34">
         <f t="shared" si="7"/>
@@ -26052,11 +26066,11 @@
       </c>
       <c r="H72" s="34">
         <f t="shared" si="8"/>
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" si="11"/>
-        <v>376.85714285714283</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -26067,10 +26081,10 @@
         <v>41419</v>
       </c>
       <c r="C73" s="25">
-        <v>42955</v>
+        <v>42963</v>
       </c>
       <c r="D73" s="22">
-        <v>42961</v>
+        <v>42967</v>
       </c>
       <c r="E73" s="34">
         <f t="shared" si="7"/>
@@ -26090,7 +26104,7 @@
       </c>
       <c r="I73" s="34">
         <f t="shared" si="11"/>
-        <v>374.71428571428572</v>
+        <v>374.85714285714283</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -26101,10 +26115,10 @@
         <v>41438</v>
       </c>
       <c r="C74" s="25">
-        <v>43327</v>
+        <v>43336</v>
       </c>
       <c r="D74" s="22">
-        <v>43334</v>
+        <v>43340</v>
       </c>
       <c r="E74" s="34">
         <f t="shared" si="7"/>
@@ -26124,7 +26138,7 @@
       </c>
       <c r="I74" s="34">
         <f t="shared" si="11"/>
-        <v>364.57142857142856</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -26135,10 +26149,10 @@
         <v>41440</v>
       </c>
       <c r="C75" s="25">
-        <v>43657</v>
+        <v>43666</v>
       </c>
       <c r="D75" s="22">
-        <v>43664</v>
+        <v>43670</v>
       </c>
       <c r="E75" s="34">
         <f t="shared" si="7"/>
@@ -26155,7 +26169,7 @@
       </c>
       <c r="I75" s="34">
         <f t="shared" si="11"/>
-        <v>353.28571428571428</v>
+        <v>353.71428571428572</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -26166,10 +26180,10 @@
         <v>42011</v>
       </c>
       <c r="C76" s="25">
-        <v>44018</v>
+        <v>44027</v>
       </c>
       <c r="D76" s="22">
-        <v>44025</v>
+        <v>44031</v>
       </c>
       <c r="E76" s="34">
         <f t="shared" si="7"/>
@@ -26186,7 +26200,7 @@
       </c>
       <c r="I76" s="34">
         <f t="shared" si="11"/>
-        <v>339.28571428571428</v>
+        <v>339.57142857142856</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -26197,10 +26211,10 @@
         <v>42637</v>
       </c>
       <c r="C77" s="25">
-        <v>44343</v>
+        <v>44352</v>
       </c>
       <c r="D77" s="22">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E77" s="34">
         <f t="shared" si="7"/>
@@ -26213,11 +26227,11 @@
       <c r="G77" s="74"/>
       <c r="H77" s="34">
         <f t="shared" si="8"/>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I77" s="34">
         <f t="shared" si="11"/>
-        <v>324.57142857142856</v>
+        <v>324.85714285714283</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -26228,10 +26242,10 @@
         <v>43222</v>
       </c>
       <c r="C78" s="25">
-        <v>44656</v>
+        <v>44665</v>
       </c>
       <c r="D78" s="22">
-        <v>44663</v>
+        <v>44671</v>
       </c>
       <c r="E78" s="34">
         <f t="shared" si="7"/>
@@ -26248,7 +26262,7 @@
       </c>
       <c r="I78" s="34">
         <f t="shared" si="11"/>
-        <v>309</v>
+        <v>309.28571428571428</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -26259,10 +26273,10 @@
         <v>43659</v>
       </c>
       <c r="C79" s="25">
-        <v>44953</v>
+        <v>44962</v>
       </c>
       <c r="D79" s="22">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="E79" s="34">
         <f t="shared" si="7"/>
@@ -26282,7 +26296,7 @@
       </c>
       <c r="I79" s="34">
         <f t="shared" si="11"/>
-        <v>298.14285714285717</v>
+        <v>298.42857142857144</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -26293,10 +26307,10 @@
         <v>44055</v>
       </c>
       <c r="C80" s="25">
-        <v>45226</v>
+        <v>45235</v>
       </c>
       <c r="D80" s="22">
-        <v>45233</v>
+        <v>45241</v>
       </c>
       <c r="E80" s="34">
         <f t="shared" si="7"/>
@@ -26316,7 +26330,7 @@
       </c>
       <c r="I80" s="34">
         <f t="shared" si="11"/>
-        <v>282.28571428571428</v>
+        <v>282.57142857142856</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -26327,10 +26341,10 @@
         <v>44069</v>
       </c>
       <c r="C81" s="25">
-        <v>45490</v>
+        <v>45499</v>
       </c>
       <c r="D81" s="22">
-        <v>45497</v>
+        <v>45505</v>
       </c>
       <c r="E81" s="34">
         <f t="shared" si="7"/>
@@ -26361,10 +26375,10 @@
         <v>44070</v>
       </c>
       <c r="C82" s="25">
-        <v>45744</v>
+        <v>45753</v>
       </c>
       <c r="D82" s="22">
-        <v>45751</v>
+        <v>45759</v>
       </c>
       <c r="E82" s="34">
         <f t="shared" si="7"/>
@@ -26395,10 +26409,10 @@
         <v>44075</v>
       </c>
       <c r="C83" s="25">
-        <v>45994</v>
+        <v>46003</v>
       </c>
       <c r="D83" s="22">
-        <v>46001</v>
+        <v>46009</v>
       </c>
       <c r="E83" s="34">
         <f t="shared" si="7"/>
@@ -26429,10 +26443,10 @@
         <v>44542</v>
       </c>
       <c r="C84" s="25">
-        <v>46269</v>
+        <v>46278</v>
       </c>
       <c r="D84" s="22">
-        <v>46276</v>
+        <v>46284</v>
       </c>
       <c r="E84" s="34">
         <f t="shared" si="7"/>
@@ -26463,10 +26477,10 @@
         <v>45029</v>
       </c>
       <c r="C85" s="25">
-        <v>46515</v>
+        <v>46524</v>
       </c>
       <c r="D85" s="22">
-        <v>46522</v>
+        <v>46530</v>
       </c>
       <c r="E85" s="34">
         <f t="shared" si="7"/>
@@ -26497,10 +26511,10 @@
         <v>45529</v>
       </c>
       <c r="C86" s="21">
-        <v>46771</v>
+        <v>46780</v>
       </c>
       <c r="D86" s="22">
-        <v>46778</v>
+        <v>46786</v>
       </c>
       <c r="E86" s="33">
         <f t="shared" si="7"/>
@@ -26531,10 +26545,10 @@
         <v>45908</v>
       </c>
       <c r="C87" s="21">
-        <v>46999</v>
+        <v>47008</v>
       </c>
       <c r="D87" s="22">
-        <v>47006</v>
+        <v>47014</v>
       </c>
       <c r="E87" s="33">
         <f t="shared" si="7"/>
@@ -26565,10 +26579,10 @@
         <v>45919</v>
       </c>
       <c r="C88" s="21">
-        <v>47200</v>
+        <v>47209</v>
       </c>
       <c r="D88" s="22">
-        <v>47207</v>
+        <v>47215</v>
       </c>
       <c r="E88" s="33">
         <f t="shared" si="7"/>
@@ -26599,10 +26613,10 @@
         <v>45921</v>
       </c>
       <c r="C89" s="21">
-        <v>47379</v>
+        <v>47388</v>
       </c>
       <c r="D89" s="22">
-        <v>47386</v>
+        <v>47394</v>
       </c>
       <c r="E89" s="33">
         <f t="shared" si="7"/>
@@ -26633,10 +26647,10 @@
         <v>46297</v>
       </c>
       <c r="C90" s="21">
-        <v>47567</v>
+        <v>47576</v>
       </c>
       <c r="D90" s="22">
-        <v>47574</v>
+        <v>47582</v>
       </c>
       <c r="E90" s="33">
         <f t="shared" si="7"/>
@@ -26667,10 +26681,10 @@
         <v>46673</v>
       </c>
       <c r="C91" s="21">
-        <v>47778</v>
+        <v>47787</v>
       </c>
       <c r="D91" s="22">
-        <v>47785</v>
+        <v>47793</v>
       </c>
       <c r="E91" s="33">
         <f t="shared" si="7"/>
@@ -26701,10 +26715,10 @@
         <v>46991</v>
       </c>
       <c r="C92" s="21">
-        <v>47962</v>
+        <v>47971</v>
       </c>
       <c r="D92" s="22">
-        <v>47969</v>
+        <v>47977</v>
       </c>
       <c r="E92" s="33">
         <f t="shared" si="7"/>
@@ -26721,7 +26735,7 @@
       </c>
       <c r="I92" s="33">
         <f t="shared" si="11"/>
-        <v>176.85714285714286</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -26732,10 +26746,10 @@
         <v>47295</v>
       </c>
       <c r="C93" s="21">
-        <v>48138</v>
+        <v>48147</v>
       </c>
       <c r="D93" s="22">
-        <v>48145</v>
+        <v>48153</v>
       </c>
       <c r="E93" s="33">
         <f t="shared" si="7"/>
@@ -26752,7 +26766,7 @@
       </c>
       <c r="I93" s="33">
         <f t="shared" si="11"/>
-        <v>172.57142857142858</v>
+        <v>172.71428571428572</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -26763,10 +26777,10 @@
         <v>47528</v>
       </c>
       <c r="C94" s="21">
-        <v>48304</v>
+        <v>48314</v>
       </c>
       <c r="D94" s="22">
-        <v>48312</v>
+        <v>48320</v>
       </c>
       <c r="E94" s="33">
         <f t="shared" si="7"/>
@@ -26783,7 +26797,7 @@
       </c>
       <c r="I94" s="33">
         <f t="shared" si="11"/>
-        <v>167.14285714285714</v>
+        <v>167.28571428571428</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -26794,10 +26808,10 @@
         <v>47543</v>
       </c>
       <c r="C95" s="21">
-        <v>48437</v>
+        <v>48447</v>
       </c>
       <c r="D95" s="22">
-        <v>48445</v>
+        <v>48454</v>
       </c>
       <c r="E95" s="33">
         <f t="shared" si="7"/>
@@ -26810,11 +26824,11 @@
       <c r="G95" s="74"/>
       <c r="H95" s="33">
         <f t="shared" si="8"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I95" s="33">
         <f t="shared" si="11"/>
-        <v>155.71428571428572</v>
+        <v>155.85714285714286</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -26825,10 +26839,10 @@
         <v>47543</v>
       </c>
       <c r="C96" s="21">
-        <v>48586</v>
+        <v>48596</v>
       </c>
       <c r="D96" s="22">
-        <v>48594</v>
+        <v>48603</v>
       </c>
       <c r="E96" s="33">
         <f t="shared" si="7"/>
@@ -26845,7 +26859,7 @@
       </c>
       <c r="I96" s="33">
         <f t="shared" si="11"/>
-        <v>150.42857142857142</v>
+        <v>150.57142857142858</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -26856,10 +26870,10 @@
         <v>47778</v>
       </c>
       <c r="C97" s="21">
-        <v>48736</v>
+        <v>48746</v>
       </c>
       <c r="D97" s="22">
-        <v>48744</v>
+        <v>48753</v>
       </c>
       <c r="E97" s="33">
         <f t="shared" si="7"/>
@@ -26876,7 +26890,7 @@
       </c>
       <c r="I97" s="33">
         <f t="shared" si="11"/>
-        <v>141</v>
+        <v>141.14285714285714</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -26887,10 +26901,10 @@
         <v>48075</v>
       </c>
       <c r="C98" s="21">
-        <v>48867</v>
+        <v>48877</v>
       </c>
       <c r="D98" s="22">
-        <v>48875</v>
+        <v>48884</v>
       </c>
       <c r="E98" s="33">
         <f t="shared" si="7"/>
@@ -26907,7 +26921,7 @@
       </c>
       <c r="I98" s="33">
         <f t="shared" si="11"/>
-        <v>134.57142857142858</v>
+        <v>134.71428571428572</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -26918,13 +26932,13 @@
         <v>48292</v>
       </c>
       <c r="C99" s="21">
-        <v>49014</v>
+        <v>49024</v>
       </c>
       <c r="D99" s="22">
-        <v>49022</v>
+        <v>49031</v>
       </c>
       <c r="E99" s="33">
-        <f t="shared" ref="E99:E157" si="12">B99-B98</f>
+        <f t="shared" ref="E99:E162" si="12">B99-B98</f>
         <v>217</v>
       </c>
       <c r="F99" s="33">
@@ -26933,7 +26947,7 @@
       </c>
       <c r="G99" s="74"/>
       <c r="H99" s="33">
-        <f t="shared" ref="H99:H157" si="13">D99-D98</f>
+        <f t="shared" ref="H99:H162" si="13">D99-D98</f>
         <v>147</v>
       </c>
       <c r="I99" s="33">
@@ -26949,10 +26963,10 @@
         <v>48476</v>
       </c>
       <c r="C100" s="26">
-        <v>49124</v>
+        <v>49134</v>
       </c>
       <c r="D100" s="28">
-        <v>49132</v>
+        <v>49141</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="12"/>
@@ -26980,10 +26994,10 @@
         <v>48668</v>
       </c>
       <c r="C101" s="26">
-        <v>49246</v>
+        <v>49256</v>
       </c>
       <c r="D101" s="28">
-        <v>49254</v>
+        <v>49263</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="12"/>
@@ -27011,10 +27025,10 @@
         <v>48680</v>
       </c>
       <c r="C102" s="26">
-        <v>49337</v>
+        <v>49347</v>
       </c>
       <c r="D102" s="28">
-        <v>49345</v>
+        <v>49354</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="12"/>
@@ -27042,10 +27056,10 @@
         <v>48681</v>
       </c>
       <c r="C103" s="26">
-        <v>49462</v>
+        <v>49472</v>
       </c>
       <c r="D103" s="28">
-        <v>49470</v>
+        <v>49479</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="12"/>
@@ -27073,10 +27087,10 @@
         <v>48834</v>
       </c>
       <c r="C104" s="26">
-        <v>49557</v>
+        <v>49567</v>
       </c>
       <c r="D104" s="28">
-        <v>49565</v>
+        <v>49574</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="12"/>
@@ -27104,10 +27118,10 @@
         <v>49030</v>
       </c>
       <c r="C105" s="26">
-        <v>49668</v>
+        <v>49678</v>
       </c>
       <c r="D105" s="28">
-        <v>49676</v>
+        <v>49685</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="12"/>
@@ -27135,10 +27149,10 @@
         <v>49210</v>
       </c>
       <c r="C106" s="26">
-        <v>49760</v>
+        <v>49770</v>
       </c>
       <c r="D106" s="28">
-        <v>49768</v>
+        <v>49777</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="12"/>
@@ -27166,10 +27180,10 @@
         <v>49348</v>
       </c>
       <c r="C107" s="26">
-        <v>49838</v>
+        <v>49848</v>
       </c>
       <c r="D107" s="28">
-        <v>49846</v>
+        <v>49855</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="12"/>
@@ -27197,10 +27211,10 @@
         <v>49470</v>
       </c>
       <c r="C108" s="26">
-        <v>49920</v>
+        <v>49930</v>
       </c>
       <c r="D108" s="28">
-        <v>49928</v>
+        <v>49937</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="12"/>
@@ -27228,10 +27242,10 @@
         <v>49474</v>
       </c>
       <c r="C109" s="26">
-        <v>49998</v>
+        <v>50008</v>
       </c>
       <c r="D109" s="28">
-        <v>50006</v>
+        <v>50015</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="12"/>
@@ -27259,10 +27273,10 @@
         <v>49474</v>
       </c>
       <c r="C110" s="26">
-        <v>50068</v>
+        <v>50078</v>
       </c>
       <c r="D110" s="28">
-        <v>50076</v>
+        <v>50085</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="12"/>
@@ -27279,7 +27293,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>81.285714285714292</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -27290,10 +27304,10 @@
         <v>49585</v>
       </c>
       <c r="C111" s="26">
-        <v>50143</v>
+        <v>50153</v>
       </c>
       <c r="D111" s="28">
-        <v>50151</v>
+        <v>50160</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="12"/>
@@ -27310,7 +27324,7 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="11"/>
-        <v>84.285714285714292</v>
+        <v>84.714285714285708</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -27321,10 +27335,10 @@
         <v>49733</v>
       </c>
       <c r="C112" s="26">
-        <v>50234</v>
+        <v>50244</v>
       </c>
       <c r="D112" s="28">
-        <v>50242</v>
+        <v>50251</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="12"/>
@@ -27341,7 +27355,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>83.428571428571431</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -27352,10 +27366,10 @@
         <v>49861</v>
       </c>
       <c r="C113" s="26">
-        <v>50327</v>
+        <v>50339</v>
       </c>
       <c r="D113" s="28">
-        <v>50335</v>
+        <v>50346</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="12"/>
@@ -27368,11 +27382,11 @@
       <c r="G113" s="74"/>
       <c r="H113" s="11">
         <f t="shared" si="13"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I113" s="11">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>81.428571428571431</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -27383,10 +27397,10 @@
         <v>49974</v>
       </c>
       <c r="C114" s="26">
-        <v>50428</v>
+        <v>50441</v>
       </c>
       <c r="D114" s="28">
-        <v>50436</v>
+        <v>50448</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="12"/>
@@ -27399,11 +27413,11 @@
       <c r="G114" s="74"/>
       <c r="H114" s="11">
         <f t="shared" si="13"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I114" s="11">
         <f t="shared" si="11"/>
-        <v>80.428571428571431</v>
+        <v>80.857142857142861</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27414,10 +27428,10 @@
         <v>50092</v>
       </c>
       <c r="C115" s="26">
-        <v>50501</v>
+        <v>50514</v>
       </c>
       <c r="D115" s="28">
-        <v>50509</v>
+        <v>50521</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="12"/>
@@ -27434,7 +27448,7 @@
       </c>
       <c r="I115" s="11">
         <f t="shared" si="11"/>
-        <v>79.142857142857139</v>
+        <v>79.571428571428569</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27445,10 +27459,10 @@
         <v>50094</v>
       </c>
       <c r="C116" s="26">
-        <v>50565</v>
+        <v>50578</v>
       </c>
       <c r="D116" s="28">
-        <v>50573</v>
+        <v>50585</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="12"/>
@@ -27465,7 +27479,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="11"/>
-        <v>76.714285714285708</v>
+        <v>77.285714285714292</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27476,10 +27490,10 @@
         <v>50094</v>
       </c>
       <c r="C117" s="26">
-        <v>50631</v>
+        <v>50644</v>
       </c>
       <c r="D117" s="28">
-        <v>50639</v>
+        <v>50651</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="12"/>
@@ -27496,7 +27510,7 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="11"/>
-        <v>70.142857142857139</v>
+        <v>70.428571428571431</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27507,10 +27521,10 @@
         <v>50208</v>
       </c>
       <c r="C118" s="26">
-        <v>50697</v>
+        <v>50710</v>
       </c>
       <c r="D118" s="28">
-        <v>50705</v>
+        <v>50717</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="12"/>
@@ -27527,7 +27541,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="11"/>
-        <v>64.428571428571431</v>
+        <v>64.714285714285708</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27538,10 +27552,10 @@
         <v>50324</v>
       </c>
       <c r="C119" s="26">
-        <v>50771</v>
+        <v>50785</v>
       </c>
       <c r="D119" s="28">
-        <v>50779</v>
+        <v>50792</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="12"/>
@@ -27554,11 +27568,11 @@
       <c r="G119" s="74"/>
       <c r="H119" s="11">
         <f t="shared" si="13"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I119" s="11">
         <f t="shared" si="11"/>
-        <v>60.285714285714285</v>
+        <v>60.571428571428569</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27569,10 +27583,10 @@
         <v>50430</v>
       </c>
       <c r="C120" s="26">
-        <v>50818</v>
+        <v>50832</v>
       </c>
       <c r="D120" s="28">
-        <v>50826</v>
+        <v>50839</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="12"/>
@@ -27589,7 +27603,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" si="11"/>
-        <v>58.142857142857146</v>
+        <v>58.428571428571431</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27600,10 +27614,10 @@
         <v>50542</v>
       </c>
       <c r="C121" s="26">
-        <v>50879</v>
+        <v>50893</v>
       </c>
       <c r="D121" s="28">
-        <v>50887</v>
+        <v>50901</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="12"/>
@@ -27616,11 +27630,11 @@
       <c r="G121" s="74"/>
       <c r="H121" s="11">
         <f t="shared" si="13"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I121" s="11">
         <f t="shared" si="11"/>
-        <v>55.714285714285715</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27631,10 +27645,10 @@
         <v>50634</v>
       </c>
       <c r="C122" s="26">
-        <v>50923</v>
+        <v>50937</v>
       </c>
       <c r="D122" s="28">
-        <v>50931</v>
+        <v>50945</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="12"/>
@@ -27651,7 +27665,7 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="11"/>
-        <v>53.285714285714285</v>
+        <v>53.571428571428569</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27662,10 +27676,10 @@
         <v>50639</v>
       </c>
       <c r="C123" s="26">
-        <v>50972</v>
+        <v>50986</v>
       </c>
       <c r="D123" s="28">
-        <v>50980</v>
+        <v>50994</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="12"/>
@@ -27682,7 +27696,7 @@
       </c>
       <c r="I123" s="11">
         <f t="shared" si="11"/>
-        <v>48.714285714285715</v>
+        <v>48.857142857142854</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27693,10 +27707,10 @@
         <v>50639</v>
       </c>
       <c r="C124" s="26">
-        <v>51021</v>
+        <v>51035</v>
       </c>
       <c r="D124" s="28">
-        <v>51029</v>
+        <v>51043</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="12"/>
@@ -27713,7 +27727,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="11"/>
-        <v>48.142857142857146</v>
+        <v>48.285714285714285</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27724,10 +27738,10 @@
         <v>50707</v>
       </c>
       <c r="C125" s="26">
-        <v>51069</v>
+        <v>51084</v>
       </c>
       <c r="D125" s="28">
-        <v>51078</v>
+        <v>51092</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="12"/>
@@ -27744,7 +27758,7 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="11"/>
-        <v>47.285714285714285</v>
+        <v>47.428571428571431</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27755,10 +27769,10 @@
         <v>50796</v>
       </c>
       <c r="C126" s="26">
-        <v>51111</v>
+        <v>51126</v>
       </c>
       <c r="D126" s="28">
-        <v>51120</v>
+        <v>51134</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="12"/>
@@ -27766,7 +27780,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="10"/>
-        <v>55.142857142857146</v>
+        <v>55.285714285714285</v>
       </c>
       <c r="G126" s="74"/>
       <c r="H126" s="11">
@@ -27775,7 +27789,7 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="11"/>
-        <v>47.142857142857146</v>
+        <v>47.285714285714285</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27786,10 +27800,10 @@
         <v>50882</v>
       </c>
       <c r="C127" s="26">
-        <v>51154</v>
+        <v>51169</v>
       </c>
       <c r="D127" s="28">
-        <v>51163</v>
+        <v>51177</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="12"/>
@@ -27797,7 +27811,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="10"/>
-        <v>54.714285714285715</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="G127" s="74"/>
       <c r="H127" s="11">
@@ -27806,7 +27820,7 @@
       </c>
       <c r="I127" s="11">
         <f t="shared" si="11"/>
-        <v>44.714285714285715</v>
+        <v>44.857142857142854</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27817,10 +27831,10 @@
         <v>50954</v>
       </c>
       <c r="C128" s="26">
-        <v>51209</v>
+        <v>51225</v>
       </c>
       <c r="D128" s="28">
-        <v>51218</v>
+        <v>51233</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="12"/>
@@ -27828,16 +27842,16 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="10"/>
-        <v>54.714285714285715</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="G128" s="74"/>
       <c r="H128" s="11">
         <f t="shared" si="13"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I128" s="11">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>42.142857142857146</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27845,21 +27859,21 @@
         <v>44022</v>
       </c>
       <c r="B129" s="27">
-        <v>51020</v>
+        <v>51021</v>
       </c>
       <c r="C129" s="26">
-        <v>51252</v>
+        <v>51268</v>
       </c>
       <c r="D129" s="28">
-        <v>51261</v>
+        <v>51276</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="12"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F129" s="11">
         <f t="shared" si="10"/>
-        <v>54.142857142857146</v>
+        <v>54.428571428571431</v>
       </c>
       <c r="G129" s="74"/>
       <c r="H129" s="11">
@@ -27868,7 +27882,7 @@
       </c>
       <c r="I129" s="11">
         <f t="shared" si="11"/>
-        <v>40.714285714285715</v>
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27876,13 +27890,13 @@
         <v>44023</v>
       </c>
       <c r="B130" s="27">
-        <v>51022</v>
+        <v>51023</v>
       </c>
       <c r="C130" s="26">
-        <v>51284</v>
+        <v>51300</v>
       </c>
       <c r="D130" s="28">
-        <v>51293</v>
+        <v>51308</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="12"/>
@@ -27890,7 +27904,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="10"/>
-        <v>51.142857142857146</v>
+        <v>51.428571428571431</v>
       </c>
       <c r="G130" s="74"/>
       <c r="H130" s="11">
@@ -27899,7 +27913,7 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="11"/>
-        <v>40.142857142857146</v>
+        <v>40.285714285714285</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27907,13 +27921,13 @@
         <v>44024</v>
       </c>
       <c r="B131" s="27">
-        <v>51022</v>
+        <v>51023</v>
       </c>
       <c r="C131" s="26">
-        <v>51314</v>
+        <v>51330</v>
       </c>
       <c r="D131" s="28">
-        <v>51323</v>
+        <v>51338</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" si="12"/>
@@ -27921,7 +27935,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="10"/>
-        <v>47.142857142857146</v>
+        <v>47.571428571428569</v>
       </c>
       <c r="G131" s="74"/>
       <c r="H131" s="11">
@@ -27930,7 +27944,7 @@
       </c>
       <c r="I131" s="11">
         <f t="shared" si="11"/>
-        <v>39.285714285714285</v>
+        <v>39.428571428571431</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -27938,21 +27952,21 @@
         <v>44025</v>
       </c>
       <c r="B132" s="27">
-        <v>51086</v>
+        <v>51088</v>
       </c>
       <c r="C132" s="26">
-        <v>51354</v>
+        <v>51370</v>
       </c>
       <c r="D132" s="28">
-        <v>51363</v>
+        <v>51378</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F132" s="11">
         <f t="shared" si="10"/>
-        <v>44.714285714285715</v>
+        <v>45.285714285714285</v>
       </c>
       <c r="G132" s="74"/>
       <c r="H132" s="11">
@@ -27969,13 +27983,13 @@
         <v>44026</v>
       </c>
       <c r="B133" s="27">
-        <v>51154</v>
+        <v>51156</v>
       </c>
       <c r="C133" s="26">
-        <v>51391</v>
+        <v>51408</v>
       </c>
       <c r="D133" s="28">
-        <v>51401</v>
+        <v>51416</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="12"/>
@@ -27983,7 +27997,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="10"/>
-        <v>42.285714285714285</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="G133" s="74"/>
       <c r="H133" s="11">
@@ -28000,21 +28014,21 @@
         <v>44027</v>
       </c>
       <c r="B134" s="27">
-        <v>51212</v>
+        <v>51215</v>
       </c>
       <c r="C134" s="26">
-        <v>51427</v>
+        <v>51445</v>
       </c>
       <c r="D134" s="28">
-        <v>51438</v>
+        <v>51453</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="12"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F134" s="11">
         <f t="shared" si="10"/>
-        <v>42.428571428571431</v>
+        <v>43</v>
       </c>
       <c r="G134" s="74"/>
       <c r="H134" s="11">
@@ -28031,21 +28045,21 @@
         <v>44028</v>
       </c>
       <c r="B135" s="27">
-        <v>51267</v>
+        <v>51271</v>
       </c>
       <c r="C135" s="26">
-        <v>51445</v>
+        <v>51463</v>
       </c>
       <c r="D135" s="28">
-        <v>51456</v>
+        <v>51471</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135" s="11">
-        <f t="shared" ref="F135:F154" si="14">AVERAGE(E132:E138)</f>
-        <v>42.714285714285715</v>
+        <f t="shared" ref="F135:F161" si="14">AVERAGE(E132:E138)</f>
+        <v>43.285714285714285</v>
       </c>
       <c r="G135" s="74"/>
       <c r="H135" s="11">
@@ -28062,21 +28076,21 @@
         <v>44029</v>
       </c>
       <c r="B136" s="27">
-        <v>51316</v>
+        <v>51321</v>
       </c>
       <c r="C136" s="26">
-        <v>51474</v>
+        <v>51492</v>
       </c>
       <c r="D136" s="28">
-        <v>51485</v>
+        <v>51500</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="14"/>
-        <v>39.142857142857146</v>
+        <v>39.714285714285715</v>
       </c>
       <c r="G136" s="74"/>
       <c r="H136" s="11">
@@ -28093,13 +28107,13 @@
         <v>44030</v>
       </c>
       <c r="B137" s="27">
-        <v>51319</v>
+        <v>51324</v>
       </c>
       <c r="C137" s="26">
-        <v>51502</v>
+        <v>51520</v>
       </c>
       <c r="D137" s="28">
-        <v>51513</v>
+        <v>51528</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="12"/>
@@ -28107,7 +28121,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="14"/>
-        <v>35.857142857142854</v>
+        <v>36.428571428571431</v>
       </c>
       <c r="G137" s="74"/>
       <c r="H137" s="11">
@@ -28124,13 +28138,13 @@
         <v>44031</v>
       </c>
       <c r="B138" s="27">
-        <v>51321</v>
+        <v>51326</v>
       </c>
       <c r="C138" s="26">
-        <v>51522</v>
+        <v>51540</v>
       </c>
       <c r="D138" s="28">
-        <v>51533</v>
+        <v>51548</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="12"/>
@@ -28138,7 +28152,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="14"/>
-        <v>33.142857142857146</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="G138" s="74"/>
       <c r="H138" s="11">
@@ -28155,21 +28169,21 @@
         <v>44032</v>
       </c>
       <c r="B139" s="27">
-        <v>51360</v>
+        <v>51366</v>
       </c>
       <c r="C139" s="26">
-        <v>51550</v>
+        <v>51568</v>
       </c>
       <c r="D139" s="28">
-        <v>51561</v>
+        <v>51576</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F139" s="11">
         <f t="shared" si="14"/>
-        <v>32.857142857142854</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="G139" s="74"/>
       <c r="H139" s="11">
@@ -28178,7 +28192,7 @@
       </c>
       <c r="I139" s="11">
         <f t="shared" si="15"/>
-        <v>28.428571428571427</v>
+        <v>28.571428571428573</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -28186,13 +28200,13 @@
         <v>44033</v>
       </c>
       <c r="B140" s="27">
-        <v>51405</v>
+        <v>51411</v>
       </c>
       <c r="C140" s="26">
-        <v>51581</v>
+        <v>51599</v>
       </c>
       <c r="D140" s="28">
-        <v>51592</v>
+        <v>51607</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="12"/>
@@ -28200,7 +28214,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="G140" s="74"/>
       <c r="H140" s="11">
@@ -28209,7 +28223,7 @@
       </c>
       <c r="I140" s="11">
         <f t="shared" si="15"/>
-        <v>26.714285714285715</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -28217,13 +28231,13 @@
         <v>44034</v>
       </c>
       <c r="B141" s="27">
-        <v>51444</v>
+        <v>51450</v>
       </c>
       <c r="C141" s="26">
-        <v>51612</v>
+        <v>51631</v>
       </c>
       <c r="D141" s="28">
-        <v>51624</v>
+        <v>51639</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="12"/>
@@ -28231,7 +28245,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="14"/>
-        <v>30.857142857142858</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="G141" s="74"/>
       <c r="H141" s="11">
@@ -28239,8 +28253,8 @@
         <v>32</v>
       </c>
       <c r="I141" s="11">
-        <f t="shared" ref="I141:I154" si="16">AVERAGE(H138:H144)</f>
-        <v>25.714285714285715</v>
+        <f t="shared" ref="I141:I161" si="16">AVERAGE(H138:H144)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -28248,13 +28262,13 @@
         <v>44035</v>
       </c>
       <c r="B142" s="27">
-        <v>51497</v>
+        <v>51503</v>
       </c>
       <c r="C142" s="26">
-        <v>51643</v>
+        <v>51663</v>
       </c>
       <c r="D142" s="28">
-        <v>51655</v>
+        <v>51671</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="12"/>
@@ -28262,16 +28276,16 @@
       </c>
       <c r="F142" s="11">
         <f t="shared" si="14"/>
-        <v>30.714285714285715</v>
+        <v>31</v>
       </c>
       <c r="G142" s="74"/>
       <c r="H142" s="11">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I142" s="11">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>27.428571428571427</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -28279,30 +28293,30 @@
         <v>44036</v>
       </c>
       <c r="B143" s="27">
-        <v>51533</v>
+        <v>51540</v>
       </c>
       <c r="C143" s="26">
-        <v>51660</v>
+        <v>51680</v>
       </c>
       <c r="D143" s="28">
-        <v>51672</v>
+        <v>51689</v>
       </c>
       <c r="E143" s="11">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F143" s="11">
         <f t="shared" si="14"/>
-        <v>32.571428571428569</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="G143" s="74"/>
       <c r="H143" s="11">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I143" s="11">
         <f t="shared" si="16"/>
-        <v>25.571428571428573</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -28310,13 +28324,13 @@
         <v>44037</v>
       </c>
       <c r="B144" s="27">
-        <v>51535</v>
+        <v>51542</v>
       </c>
       <c r="C144" s="26">
-        <v>51681</v>
+        <v>51701</v>
       </c>
       <c r="D144" s="28">
-        <v>51693</v>
+        <v>51710</v>
       </c>
       <c r="E144" s="11">
         <f t="shared" si="12"/>
@@ -28324,7 +28338,7 @@
       </c>
       <c r="F144" s="11">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="G144" s="74"/>
       <c r="H144" s="11">
@@ -28333,7 +28347,7 @@
       </c>
       <c r="I144" s="11">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>24.428571428571427</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -28341,13 +28355,13 @@
         <v>44038</v>
       </c>
       <c r="B145" s="27">
-        <v>51536</v>
+        <v>51543</v>
       </c>
       <c r="C145" s="26">
-        <v>51710</v>
+        <v>51730</v>
       </c>
       <c r="D145" s="28">
-        <v>51722</v>
+        <v>51740</v>
       </c>
       <c r="E145" s="11">
         <f t="shared" si="12"/>
@@ -28355,16 +28369,16 @@
       </c>
       <c r="F145" s="11">
         <f t="shared" si="14"/>
-        <v>32.142857142857146</v>
+        <v>32.428571428571431</v>
       </c>
       <c r="G145" s="74"/>
       <c r="H145" s="11">
         <f t="shared" si="13"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I145" s="11">
         <f t="shared" si="16"/>
-        <v>23.142857142857142</v>
+        <v>23.571428571428573</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -28372,13 +28386,13 @@
         <v>44039</v>
       </c>
       <c r="B146" s="27">
-        <v>51588</v>
+        <v>51595</v>
       </c>
       <c r="C146" s="26">
-        <v>51728</v>
+        <v>51748</v>
       </c>
       <c r="D146" s="28">
-        <v>51740</v>
+        <v>51758</v>
       </c>
       <c r="E146" s="11">
         <f t="shared" si="12"/>
@@ -28386,7 +28400,7 @@
       </c>
       <c r="F146" s="11">
         <f t="shared" si="14"/>
-        <v>29.142857142857142</v>
+        <v>29.428571428571427</v>
       </c>
       <c r="G146" s="74"/>
       <c r="H146" s="11">
@@ -28395,7 +28409,7 @@
       </c>
       <c r="I146" s="11">
         <f t="shared" si="16"/>
-        <v>21.142857142857142</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -28403,21 +28417,21 @@
         <v>44040</v>
       </c>
       <c r="B147" s="27">
-        <v>51622</v>
+        <v>51630</v>
       </c>
       <c r="C147" s="26">
-        <v>51748</v>
+        <v>51768</v>
       </c>
       <c r="D147" s="28">
-        <v>51760</v>
+        <v>51778</v>
       </c>
       <c r="E147" s="11">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F147" s="11">
         <f t="shared" si="14"/>
-        <v>27.714285714285715</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="G147" s="74"/>
       <c r="H147" s="11">
@@ -28426,7 +28440,7 @@
       </c>
       <c r="I147" s="11">
         <f t="shared" si="16"/>
-        <v>22.714285714285715</v>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -28434,13 +28448,13 @@
         <v>44041</v>
       </c>
       <c r="B148" s="27">
-        <v>51669</v>
+        <v>51677</v>
       </c>
       <c r="C148" s="26">
-        <v>51774</v>
+        <v>51794</v>
       </c>
       <c r="D148" s="28">
-        <v>51786</v>
+        <v>51804</v>
       </c>
       <c r="E148" s="11">
         <f t="shared" si="12"/>
@@ -28448,16 +28462,16 @@
       </c>
       <c r="F148" s="11">
         <f t="shared" si="14"/>
-        <v>28.142857142857142</v>
+        <v>28.285714285714285</v>
       </c>
       <c r="G148" s="74"/>
       <c r="H148" s="11">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="I148" s="84">
+      <c r="I148" s="11">
         <f>AVERAGE(H145:H151)</f>
-        <v>22</v>
+        <v>22.428571428571427</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -28465,13 +28479,13 @@
         <v>44042</v>
       </c>
       <c r="B149" s="27">
-        <v>51701</v>
+        <v>51709</v>
       </c>
       <c r="C149" s="26">
-        <v>51788</v>
+        <v>51811</v>
       </c>
       <c r="D149" s="28">
-        <v>51803</v>
+        <v>51821</v>
       </c>
       <c r="E149" s="11">
         <f t="shared" si="12"/>
@@ -28479,16 +28493,16 @@
       </c>
       <c r="F149" s="11">
         <f t="shared" si="14"/>
-        <v>28</v>
+        <v>28.142857142857142</v>
       </c>
       <c r="G149" s="74"/>
       <c r="H149" s="11">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="I149" s="84">
+      <c r="I149" s="11">
         <f t="shared" si="16"/>
-        <v>19.857142857142858</v>
+        <v>20.285714285714285</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -28496,13 +28510,13 @@
         <v>44043</v>
       </c>
       <c r="B150" s="27">
-        <v>51727</v>
+        <v>51735</v>
       </c>
       <c r="C150" s="26">
-        <v>51814</v>
+        <v>51839</v>
       </c>
       <c r="D150" s="28">
-        <v>51831</v>
+        <v>51849</v>
       </c>
       <c r="E150" s="11">
         <f t="shared" si="12"/>
@@ -28510,30 +28524,30 @@
       </c>
       <c r="F150" s="11">
         <f t="shared" si="14"/>
-        <v>24.571428571428573</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="G150" s="74"/>
       <c r="H150" s="11">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="I150" s="84">
+      <c r="I150" s="11">
         <f t="shared" si="16"/>
-        <v>20.142857142857142</v>
+        <v>20.714285714285715</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="24">
         <v>44044</v>
       </c>
-      <c r="B151" s="88">
-        <v>51732</v>
+      <c r="B151" s="27">
+        <v>51740</v>
       </c>
       <c r="C151" s="26">
-        <v>51828</v>
-      </c>
-      <c r="D151" s="83">
-        <v>51847</v>
+        <v>51857</v>
+      </c>
+      <c r="D151" s="28">
+        <v>51867</v>
       </c>
       <c r="E151" s="11">
         <f t="shared" si="12"/>
@@ -28543,28 +28557,28 @@
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="G151" s="85"/>
-      <c r="H151" s="84">
+      <c r="G151" s="74"/>
+      <c r="H151" s="11">
         <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-      <c r="I151" s="84">
+        <v>18</v>
+      </c>
+      <c r="I151" s="11">
         <f t="shared" si="16"/>
-        <v>20.285714285714285</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="24">
         <v>44045</v>
       </c>
-      <c r="B152" s="88">
-        <v>51732</v>
+      <c r="B152" s="27">
+        <v>51740</v>
       </c>
       <c r="C152" s="26">
-        <v>51841</v>
-      </c>
-      <c r="D152" s="83">
-        <v>51861</v>
+        <v>51871</v>
+      </c>
+      <c r="D152" s="28">
+        <v>51882</v>
       </c>
       <c r="E152" s="11">
         <f t="shared" si="12"/>
@@ -28574,28 +28588,28 @@
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="G152" s="85"/>
-      <c r="H152" s="84">
+      <c r="G152" s="74"/>
+      <c r="H152" s="11">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="I152" s="84">
+        <v>15</v>
+      </c>
+      <c r="I152" s="11">
         <f t="shared" si="16"/>
-        <v>17.714285714285715</v>
+        <v>18.714285714285715</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="24">
         <v>44046</v>
       </c>
-      <c r="B153" s="88">
-        <v>51760</v>
+      <c r="B153" s="27">
+        <v>51768</v>
       </c>
       <c r="C153" s="26">
-        <v>51858</v>
-      </c>
-      <c r="D153" s="83">
-        <v>51881</v>
+        <v>51892</v>
+      </c>
+      <c r="D153" s="28">
+        <v>51903</v>
       </c>
       <c r="E153" s="11">
         <f t="shared" si="12"/>
@@ -28605,28 +28619,28 @@
         <f t="shared" si="14"/>
         <v>20.857142857142858</v>
       </c>
-      <c r="G153" s="85"/>
-      <c r="H153" s="84">
+      <c r="G153" s="74"/>
+      <c r="H153" s="11">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="I153" s="84">
+        <v>21</v>
+      </c>
+      <c r="I153" s="11">
         <f t="shared" si="16"/>
-        <v>17.142857142857142</v>
+        <v>18.857142857142858</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="24">
         <v>44047</v>
       </c>
-      <c r="B154" s="88">
-        <v>51790</v>
+      <c r="B154" s="27">
+        <v>51798</v>
       </c>
       <c r="C154" s="26">
-        <v>51871</v>
-      </c>
-      <c r="D154" s="83">
-        <v>51902</v>
+        <v>51914</v>
+      </c>
+      <c r="D154" s="28">
+        <v>51925</v>
       </c>
       <c r="E154" s="11">
         <f t="shared" si="12"/>
@@ -28636,151 +28650,309 @@
         <f t="shared" si="14"/>
         <v>21.714285714285715</v>
       </c>
-      <c r="G154" s="85"/>
-      <c r="H154" s="84">
+      <c r="G154" s="74"/>
+      <c r="H154" s="11">
         <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="I154" s="84">
+        <v>22</v>
+      </c>
+      <c r="I154" s="11">
         <f t="shared" si="16"/>
-        <v>14.857142857142858</v>
+        <v>18.142857142857142</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="24">
         <v>44048</v>
       </c>
-      <c r="B155" s="88">
-        <v>51823</v>
+      <c r="B155" s="27">
+        <v>51831</v>
       </c>
       <c r="C155" s="26">
-        <v>51876</v>
-      </c>
-      <c r="D155" s="83">
-        <v>51910</v>
+        <v>51923</v>
+      </c>
+      <c r="D155" s="28">
+        <v>51935</v>
       </c>
       <c r="E155" s="11">
         <f t="shared" si="12"/>
         <v>33</v>
       </c>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="84">
+      <c r="F155" s="11">
+        <f t="shared" si="14"/>
+        <v>21.285714285714285</v>
+      </c>
+      <c r="G155" s="74"/>
+      <c r="H155" s="11">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="I155" s="85"/>
+        <v>10</v>
+      </c>
+      <c r="I155" s="84">
+        <f t="shared" si="16"/>
+        <v>18.142857142857142</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="24">
         <v>44049</v>
       </c>
-      <c r="B156" s="88">
-        <v>51847</v>
+      <c r="B156" s="27">
+        <v>51855</v>
       </c>
       <c r="C156" s="26">
-        <v>51879</v>
-      </c>
-      <c r="D156" s="83">
-        <v>51923</v>
+        <v>51941</v>
+      </c>
+      <c r="D156" s="28">
+        <v>51953</v>
       </c>
       <c r="E156" s="11">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="84">
+      <c r="F156" s="11">
+        <f t="shared" si="14"/>
+        <v>21.285714285714285</v>
+      </c>
+      <c r="G156" s="74"/>
+      <c r="H156" s="11">
         <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="I156" s="85"/>
+        <v>18</v>
+      </c>
+      <c r="I156" s="84">
+        <f t="shared" si="16"/>
+        <v>18.285714285714285</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="24">
         <v>44050</v>
       </c>
-      <c r="B157" s="88">
-        <v>51879</v>
+      <c r="B157" s="27">
+        <v>51887</v>
       </c>
       <c r="C157" s="26">
-        <v>51879</v>
-      </c>
-      <c r="D157" s="83">
-        <v>51935</v>
+        <v>51961</v>
+      </c>
+      <c r="D157" s="28">
+        <v>51976</v>
       </c>
       <c r="E157" s="11">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="84">
+      <c r="F157" s="11">
+        <f t="shared" si="14"/>
+        <v>20.142857142857142</v>
+      </c>
+      <c r="G157" s="74"/>
+      <c r="H157" s="11">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="I157" s="85"/>
+        <v>23</v>
+      </c>
+      <c r="I157" s="84">
+        <f t="shared" si="16"/>
+        <v>18.428571428571427</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="10"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
+      <c r="A158" s="24">
+        <v>44051</v>
+      </c>
+      <c r="B158" s="88">
+        <v>51889</v>
+      </c>
+      <c r="C158" s="26">
+        <v>51977</v>
+      </c>
+      <c r="D158" s="83">
+        <v>51994</v>
+      </c>
+      <c r="E158" s="11">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F158" s="11">
+        <f t="shared" si="14"/>
+        <v>19.714285714285715</v>
+      </c>
+      <c r="G158" s="85"/>
+      <c r="H158" s="84">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I158" s="84">
+        <f t="shared" si="16"/>
+        <v>17.857142857142858</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B159" s="10"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="30"/>
+      <c r="A159" s="24">
+        <v>44052</v>
+      </c>
+      <c r="B159" s="88">
+        <v>51889</v>
+      </c>
+      <c r="C159" s="26">
+        <v>51988</v>
+      </c>
+      <c r="D159" s="83">
+        <v>52010</v>
+      </c>
+      <c r="E159" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="11">
+        <f t="shared" si="14"/>
+        <v>19.142857142857142</v>
+      </c>
+      <c r="G159" s="85"/>
+      <c r="H159" s="84">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="I159" s="84">
+        <f t="shared" si="16"/>
+        <v>18.857142857142858</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="10"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
+      <c r="A160" s="24">
+        <v>44053</v>
+      </c>
+      <c r="B160" s="88">
+        <v>51909</v>
+      </c>
+      <c r="C160" s="26">
+        <v>52004</v>
+      </c>
+      <c r="D160" s="83">
+        <v>52032</v>
+      </c>
+      <c r="E160" s="11">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F160" s="11">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="G160" s="85"/>
+      <c r="H160" s="84">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="I160" s="84">
+        <f t="shared" si="16"/>
+        <v>18.571428571428573</v>
+      </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="10"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="24">
+        <v>44054</v>
+      </c>
+      <c r="B161" s="88">
+        <v>51936</v>
+      </c>
+      <c r="C161" s="26">
+        <v>52017</v>
+      </c>
+      <c r="D161" s="83">
+        <v>52050</v>
+      </c>
+      <c r="E161" s="11">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="F161" s="11">
+        <f t="shared" si="14"/>
+        <v>19.857142857142858</v>
+      </c>
+      <c r="G161" s="85"/>
+      <c r="H161" s="84">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I161" s="84">
+        <f t="shared" si="16"/>
+        <v>16.428571428571427</v>
+      </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="10"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="24">
+        <v>44055</v>
+      </c>
+      <c r="B162" s="88">
+        <v>51965</v>
+      </c>
+      <c r="C162" s="26">
+        <v>52023</v>
+      </c>
+      <c r="D162" s="83">
+        <v>52067</v>
+      </c>
+      <c r="E162" s="11">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="84">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="I162" s="85"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="10"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="30"/>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="24">
+        <v>44056</v>
+      </c>
+      <c r="B163" s="88">
+        <v>51995</v>
+      </c>
+      <c r="C163" s="26">
+        <v>52025</v>
+      </c>
+      <c r="D163" s="83">
+        <v>52083</v>
+      </c>
+      <c r="E163" s="11">
+        <f t="shared" ref="E163:E164" si="17">B163-B162</f>
+        <v>30</v>
+      </c>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="84">
+        <f t="shared" ref="H163:H164" si="18">D163-D162</f>
+        <v>16</v>
+      </c>
+      <c r="I163" s="85"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="10"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
-      <c r="I164" s="30"/>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="24">
+        <v>44057</v>
+      </c>
+      <c r="B164" s="88">
+        <v>52026</v>
+      </c>
+      <c r="C164" s="26">
+        <v>52026</v>
+      </c>
+      <c r="D164" s="83">
+        <v>52091</v>
+      </c>
+      <c r="E164" s="11">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="84">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="I164" s="85"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" s="10"/>
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
@@ -28788,7 +28960,10 @@
       <c r="H165" s="30"/>
       <c r="I165" s="30"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="87" t="s">
+        <v>38</v>
+      </c>
       <c r="B166" s="10"/>
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
@@ -28796,7 +28971,7 @@
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="10"/>
       <c r="E167" s="30"/>
       <c r="F167" s="30"/>
@@ -28804,7 +28979,7 @@
       <c r="H167" s="30"/>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="10"/>
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
@@ -28812,7 +28987,7 @@
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" s="10"/>
       <c r="E169" s="30"/>
       <c r="F169" s="30"/>
@@ -28820,7 +28995,7 @@
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" s="10"/>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
@@ -28828,7 +29003,7 @@
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="10"/>
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
@@ -28836,7 +29011,7 @@
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B172" s="10"/>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
@@ -28844,7 +29019,7 @@
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="10"/>
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
@@ -28852,7 +29027,7 @@
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B174" s="10"/>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
@@ -28860,13 +29035,69 @@
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="10"/>
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="30"/>
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="10"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="10"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="10"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="10"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="10"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="10"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="10"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28879,7 +29110,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28894,10 +29125,10 @@
   <dimension ref="A1:CQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF3" sqref="AF3:AG3"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29339,7 +29570,9 @@
       <c r="AH3" s="41">
         <v>8945</v>
       </c>
-      <c r="AI3" s="79"/>
+      <c r="AI3" s="41">
+        <v>9392</v>
+      </c>
       <c r="AJ3" s="79"/>
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
@@ -29381,7 +29614,7 @@
       <c r="O4" s="40"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
@@ -29400,7 +29633,7 @@
       <c r="AF4" s="41"/>
       <c r="AG4" s="41"/>
       <c r="AH4" s="41"/>
-      <c r="AI4" s="79"/>
+      <c r="AI4" s="41"/>
       <c r="AJ4" s="79"/>
       <c r="AK4" s="79"/>
       <c r="AL4" s="79"/>
@@ -29523,7 +29756,9 @@
       <c r="AH5" s="41">
         <v>9102</v>
       </c>
-      <c r="AI5" s="79"/>
+      <c r="AI5" s="41">
+        <v>9085</v>
+      </c>
       <c r="AJ5" s="79"/>
       <c r="AK5" s="79"/>
       <c r="AL5" s="79"/>
@@ -29582,7 +29817,7 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
       <c r="AH6" s="46"/>
-      <c r="AI6" s="79"/>
+      <c r="AI6" s="46"/>
       <c r="AJ6" s="79"/>
       <c r="AK6" s="79"/>
       <c r="AL6" s="79"/>
@@ -29705,7 +29940,9 @@
       <c r="AH7" s="46">
         <v>8502</v>
       </c>
-      <c r="AI7" s="79"/>
+      <c r="AI7" s="46">
+        <v>8494</v>
+      </c>
       <c r="AJ7" s="79"/>
       <c r="AK7" s="79"/>
       <c r="AL7" s="79"/>
@@ -29764,7 +30001,7 @@
       <c r="AF8" s="46"/>
       <c r="AG8" s="46"/>
       <c r="AH8" s="46"/>
-      <c r="AI8" s="79"/>
+      <c r="AI8" s="46"/>
       <c r="AJ8" s="79"/>
       <c r="AK8" s="79"/>
       <c r="AL8" s="79"/>
@@ -29887,7 +30124,9 @@
       <c r="AH9" s="46">
         <v>571</v>
       </c>
-      <c r="AI9" s="79"/>
+      <c r="AI9" s="46">
+        <v>564</v>
+      </c>
       <c r="AJ9" s="79"/>
       <c r="AK9" s="79"/>
       <c r="AL9" s="79"/>
@@ -29946,7 +30185,7 @@
       <c r="AF10" s="52"/>
       <c r="AG10" s="52"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="79"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="79"/>
       <c r="AK10" s="79"/>
       <c r="AL10" s="79"/>
@@ -29988,7 +30227,7 @@
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R11" s="55"/>
       <c r="S11" s="55"/>
@@ -30007,7 +30246,7 @@
       <c r="AF11" s="55"/>
       <c r="AG11" s="55"/>
       <c r="AH11" s="55"/>
-      <c r="AI11" s="79"/>
+      <c r="AI11" s="55"/>
       <c r="AJ11" s="79"/>
       <c r="AK11" s="79"/>
       <c r="AL11" s="79"/>
@@ -30130,7 +30369,9 @@
       <c r="AH12" s="66">
         <v>789</v>
       </c>
-      <c r="AI12" s="79"/>
+      <c r="AI12" s="66">
+        <v>852</v>
+      </c>
       <c r="AJ12" s="79"/>
       <c r="AK12" s="79"/>
       <c r="AL12" s="79"/>
@@ -30253,7 +30494,9 @@
       <c r="AH13" s="60">
         <v>152</v>
       </c>
-      <c r="AI13" s="79"/>
+      <c r="AI13" s="60">
+        <v>139</v>
+      </c>
       <c r="AJ13" s="79"/>
       <c r="AK13" s="79"/>
       <c r="AL13" s="79"/>
@@ -30302,19 +30545,19 @@
         <v>1874</v>
       </c>
       <c r="P15" s="62">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="Q15" s="63">
-        <v>8222</v>
+        <v>8223</v>
       </c>
       <c r="R15" s="63">
-        <v>8292</v>
+        <v>8294</v>
       </c>
       <c r="S15" s="63">
         <v>6925</v>
       </c>
       <c r="T15" s="63">
-        <v>5191</v>
+        <v>5192</v>
       </c>
       <c r="U15" s="63">
         <v>3972</v>
@@ -30323,7 +30566,7 @@
         <v>2854</v>
       </c>
       <c r="W15" s="63">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="X15" s="63">
         <v>1773</v>
@@ -30332,33 +30575,35 @@
         <v>1306</v>
       </c>
       <c r="Z15" s="63">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AA15" s="63">
         <v>674</v>
       </c>
       <c r="AB15" s="63">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AC15" s="63">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AD15" s="63">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AE15" s="63">
         <v>224</v>
       </c>
       <c r="AF15" s="63">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG15" s="63">
-        <v>159</v>
-      </c>
-      <c r="AH15" s="82">
-        <v>104</v>
-      </c>
-      <c r="AI15" s="79"/>
+        <v>160</v>
+      </c>
+      <c r="AH15" s="63">
+        <v>127</v>
+      </c>
+      <c r="AI15" s="82">
+        <v>115</v>
+      </c>
       <c r="AJ15" s="79"/>
       <c r="AK15" s="79"/>
       <c r="AL15" s="79"/>
@@ -30490,7 +30735,7 @@
       <c r="AF17" s="75"/>
       <c r="AG17" s="75"/>
       <c r="AH17" s="75"/>
-      <c r="AI17" s="79"/>
+      <c r="AI17" s="75"/>
       <c r="AJ17" s="79"/>
       <c r="AK17" s="79"/>
       <c r="AL17" s="79"/>
@@ -30616,11 +30861,14 @@
         <f>params!$B2*AG13+params!$B3*AH13</f>
         <v>171.26999999999998</v>
       </c>
-      <c r="AH18" s="81">
+      <c r="AH18" s="13">
         <f>params!$B2*AH13+params!$B3*AI13</f>
-        <v>71.44</v>
-      </c>
-      <c r="AI18" s="79"/>
+        <v>145.11000000000001</v>
+      </c>
+      <c r="AI18" s="81">
+        <f>params!$B2*AI13+params!$B3*AJ13</f>
+        <v>65.33</v>
+      </c>
       <c r="AJ18" s="79"/>
       <c r="AK18" s="79"/>
       <c r="AL18" s="79"/>
@@ -31394,8 +31642,8 @@
         <v>9774</v>
       </c>
       <c r="AG24" s="75"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
       <c r="AJ24" s="79"/>
       <c r="AK24" s="79"/>
       <c r="AL24" s="79"/>
@@ -31543,8 +31791,8 @@
         <v>9125.7999999999993</v>
       </c>
       <c r="AG25" s="76"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
       <c r="AJ25" s="79"/>
       <c r="AK25" s="79"/>
       <c r="AL25" s="79"/>
@@ -31592,10 +31840,10 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31945,7 +32193,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM(C3:BB3)</f>
-        <v>337679</v>
+        <v>346932</v>
       </c>
       <c r="C3" s="13">
         <f>'weekly deaths'!C3-'weekly deaths'!C13</f>
@@ -32074,6 +32322,10 @@
       <c r="AH3" s="13">
         <f>'weekly deaths'!AH3-'weekly deaths'!AH13</f>
         <v>8793</v>
+      </c>
+      <c r="AI3" s="13">
+        <f>'weekly deaths'!AI3-'weekly deaths'!AI13</f>
+        <v>9253</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -32149,6 +32401,7 @@
       <c r="AF4" s="79"/>
       <c r="AG4" s="79"/>
       <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32161,10 +32414,10 @@
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32514,7 +32767,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM(C3:BC3)</f>
-        <v>337679</v>
+        <v>346932</v>
       </c>
       <c r="C3" s="13">
         <f>'step 1 - non-covid'!C3</f>
@@ -32643,6 +32896,10 @@
       <c r="AH3" s="13">
         <f>'step 1 - non-covid'!AH3</f>
         <v>8793</v>
+      </c>
+      <c r="AI3" s="13">
+        <f>'step 1 - non-covid'!AI3</f>
+        <v>9253</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -32703,6 +32960,7 @@
       <c r="AF4" s="90"/>
       <c r="AG4" s="90"/>
       <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -32710,10 +32968,10 @@
       </c>
       <c r="B5" s="13">
         <f>SUM(C5:BC5)</f>
-        <v>337679</v>
+        <v>346932</v>
       </c>
       <c r="C5" s="13">
-        <f t="shared" ref="C5:AH5" si="0">C3-B4+C4</f>
+        <f t="shared" ref="C5:AI5" si="0">C3-B4+C4</f>
         <v>12254</v>
       </c>
       <c r="D5" s="13">
@@ -32839,6 +33097,10 @@
       <c r="AH5" s="13">
         <f t="shared" si="0"/>
         <v>8793</v>
+      </c>
+      <c r="AI5" s="13">
+        <f t="shared" si="0"/>
+        <v>9253</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -32861,10 +33123,10 @@
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33214,7 +33476,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM(C3:BC3)</f>
-        <v>337679</v>
+        <v>346932</v>
       </c>
       <c r="C3" s="13">
         <f>'step 2 - smooth'!C5</f>
@@ -33343,6 +33605,10 @@
       <c r="AH3" s="13">
         <f>'step 2 - smooth'!AH5</f>
         <v>8793</v>
+      </c>
+      <c r="AI3" s="13">
+        <f>'step 2 - smooth'!AI5</f>
+        <v>9253</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -33351,7 +33617,7 @@
       </c>
       <c r="B4" s="13">
         <f>SUM(C4:BC4)</f>
-        <v>327051.66999999993</v>
+        <v>336088.46999999991</v>
       </c>
       <c r="C4" s="13">
         <f>params!$B2*C3+params!$B3*D3</f>
@@ -33477,7 +33743,11 @@
         <f>params!$B2*AG3+params!$B3*AH3</f>
         <v>8774.2000000000007</v>
       </c>
-      <c r="AH4" s="89"/>
+      <c r="AH4" s="13">
+        <f>params!$B2*AH3+params!$B3*AI3</f>
+        <v>9036.7999999999993</v>
+      </c>
+      <c r="AI4" s="89"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
@@ -33485,7 +33755,7 @@
       </c>
       <c r="B5" s="13">
         <f>B3-B4-params!B3*C3-params!B2*AE3</f>
-        <v>124.55000000007476</v>
+        <v>340.7500000000864</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
